--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -7971,7 +7971,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
+          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
@@ -14333,7 +14333,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
+          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
+          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -15209,7 +15209,7 @@
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
+          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
@@ -17183,7 +17183,7 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
+          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
+          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
@@ -19157,7 +19157,7 @@
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
@@ -19815,7 +19815,7 @@
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
+          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
+          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
@@ -22447,7 +22447,7 @@
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-14T00:00:00Z</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>E37.2B.DY2012 | E37.1B.DY2012</t>
+          <t>E37.1B.DY2012 | E37.2B.DY2012</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>E37.2B.DY2012 | E37.1B.DY2012</t>
+          <t>E37.1B.DY2012 | E37.2B.DY2012</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
@@ -24861,7 +24861,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -25079,7 +25079,7 @@
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
+          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="BC31" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD31" t="inlineStr">
@@ -26177,7 +26177,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
+          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="BC32" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD32" t="inlineStr">
@@ -27053,7 +27053,7 @@
       </c>
       <c r="BC33" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD33" t="inlineStr">
@@ -27711,7 +27711,7 @@
       </c>
       <c r="BC34" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD34" t="inlineStr">
@@ -28369,7 +28369,7 @@
       </c>
       <c r="BC35" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD35" t="inlineStr">
@@ -29027,7 +29027,7 @@
       </c>
       <c r="BC36" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD36" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="BC37" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD37" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD38" t="inlineStr">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="BC39" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD39" t="inlineStr">
@@ -31643,7 +31643,7 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD40" t="inlineStr">
@@ -32301,7 +32301,7 @@
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD41" t="inlineStr">
@@ -32959,7 +32959,7 @@
       </c>
       <c r="BC42" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD42" t="inlineStr">
@@ -33617,7 +33617,7 @@
       </c>
       <c r="BC43" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD43" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="BC44" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD44" t="inlineStr">
@@ -34925,7 +34925,7 @@
       </c>
       <c r="BC45" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD45" t="inlineStr">
@@ -35357,7 +35357,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
+          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -35575,7 +35575,7 @@
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD46" t="inlineStr">
@@ -36015,7 +36015,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
+          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -36233,7 +36233,7 @@
       </c>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD47" t="inlineStr">
@@ -36673,7 +36673,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="BC48" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD48" t="inlineStr">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="BC49" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-01-01T00:00:00Z</t>
         </is>
       </c>
       <c r="BD49" t="inlineStr">
@@ -38207,7 +38207,7 @@
       </c>
       <c r="BC50" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD50" t="inlineStr">
@@ -38865,7 +38865,7 @@
       </c>
       <c r="BC51" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD51" t="inlineStr">
@@ -39305,7 +39305,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
+          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -39523,7 +39523,7 @@
       </c>
       <c r="BC52" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD52" t="inlineStr">
@@ -39963,7 +39963,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
+          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="BC53" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD53" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
+          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -40839,7 +40839,7 @@
       </c>
       <c r="BC54" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD54" t="inlineStr">
@@ -41279,7 +41279,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
+          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -41497,7 +41497,7 @@
       </c>
       <c r="BC55" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD55" t="inlineStr">
@@ -42155,7 +42155,7 @@
       </c>
       <c r="BC56" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD56" t="inlineStr">
@@ -42805,7 +42805,7 @@
       </c>
       <c r="BC57" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD57" t="inlineStr">
@@ -43455,7 +43455,7 @@
       </c>
       <c r="BC58" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD58" t="inlineStr">
@@ -44113,7 +44113,7 @@
       </c>
       <c r="BC59" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD59" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="BC60" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD60" t="inlineStr">
@@ -45429,7 +45429,7 @@
       </c>
       <c r="BC61" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD61" t="inlineStr">
@@ -46087,7 +46087,7 @@
       </c>
       <c r="BC62" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD62" t="inlineStr">
@@ -46745,7 +46745,7 @@
       </c>
       <c r="BC63" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD63" t="inlineStr">
@@ -47403,7 +47403,7 @@
       </c>
       <c r="BC64" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD64" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="BC65" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD65" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="BC66" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD66" t="inlineStr">
@@ -49361,7 +49361,7 @@
       </c>
       <c r="BC67" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD67" t="inlineStr">
@@ -49801,7 +49801,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
+          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -50019,7 +50019,7 @@
       </c>
       <c r="BC68" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD68" t="inlineStr">
@@ -50459,7 +50459,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
+          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -50677,7 +50677,7 @@
       </c>
       <c r="BC69" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD69" t="inlineStr">
@@ -51335,7 +51335,7 @@
       </c>
       <c r="BC70" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD70" t="inlineStr">
@@ -51993,7 +51993,7 @@
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
@@ -52651,7 +52651,7 @@
       </c>
       <c r="BC72" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD72" t="inlineStr">
@@ -53301,7 +53301,7 @@
       </c>
       <c r="BC73" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD73" t="inlineStr">
@@ -53951,7 +53951,7 @@
       </c>
       <c r="BC74" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD74" t="inlineStr">
@@ -54609,7 +54609,7 @@
       </c>
       <c r="BC75" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD75" t="inlineStr">
@@ -55049,7 +55049,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="BC76" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD76" t="inlineStr">
@@ -55699,7 +55699,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -55917,7 +55917,7 @@
       </c>
       <c r="BC77" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD77" t="inlineStr">
@@ -56567,7 +56567,7 @@
       </c>
       <c r="BC78" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD78" t="inlineStr">
@@ -57225,7 +57225,7 @@
       </c>
       <c r="BC79" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD79" t="inlineStr">
@@ -57665,7 +57665,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -57883,7 +57883,7 @@
       </c>
       <c r="BC80" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD80" t="inlineStr">
@@ -58315,7 +58315,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -58533,7 +58533,7 @@
       </c>
       <c r="BC81" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD81" t="inlineStr">
@@ -58965,7 +58965,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
+          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -59183,7 +59183,7 @@
       </c>
       <c r="BC82" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD82" t="inlineStr">
@@ -59623,7 +59623,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
+          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -59841,7 +59841,7 @@
       </c>
       <c r="BC83" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD83" t="inlineStr">
@@ -60499,7 +60499,7 @@
       </c>
       <c r="BC84" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD84" t="inlineStr">
@@ -61157,7 +61157,7 @@
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
@@ -61815,7 +61815,7 @@
       </c>
       <c r="BC86" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD86" t="inlineStr">
@@ -62473,7 +62473,7 @@
       </c>
       <c r="BC87" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD87" t="inlineStr">
@@ -62913,7 +62913,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
+          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -63131,7 +63131,7 @@
       </c>
       <c r="BC88" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD88" t="inlineStr">
@@ -63571,7 +63571,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
+          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -63789,7 +63789,7 @@
       </c>
       <c r="BC89" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD89" t="inlineStr">
@@ -64447,7 +64447,7 @@
       </c>
       <c r="BC90" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD90" t="inlineStr">
@@ -65105,7 +65105,7 @@
       </c>
       <c r="BC91" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD91" t="inlineStr">
@@ -65545,7 +65545,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
+          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -65763,7 +65763,7 @@
       </c>
       <c r="BC92" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD92" t="inlineStr">
@@ -66195,7 +66195,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
+          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -66413,7 +66413,7 @@
       </c>
       <c r="BC93" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-28T00:00:00Z</t>
         </is>
       </c>
       <c r="BD93" t="inlineStr">
@@ -67075,7 +67075,7 @@
       </c>
       <c r="BC94" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="BD94" t="inlineStr">
@@ -67771,7 +67771,7 @@
       </c>
       <c r="BC95" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="BD95" t="inlineStr">
@@ -68467,7 +68467,7 @@
       </c>
       <c r="BC96" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="BD96" t="inlineStr">
@@ -69163,7 +69163,7 @@
       </c>
       <c r="BC97" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="BD97" t="inlineStr">

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -5643,7 +5643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ97"/>
+  <dimension ref="A1:ER97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7009,6 +7009,46 @@
           <t>User defined</t>
         </is>
       </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -7673,42 +7713,82 @@
       </c>
       <c r="EC3" t="inlineStr">
         <is>
+          <t>silicate</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
           <t>percent_oxygen_sat</t>
         </is>
       </c>
-      <c r="ED3" t="inlineStr">
+      <c r="EE3" t="inlineStr">
         <is>
           <t>ammonium</t>
         </is>
       </c>
-      <c r="EE3" t="inlineStr">
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>par</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>air_pressure_at_sea_level</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr">
         <is>
           <t>cruise_id</t>
         </is>
       </c>
-      <c r="EF3" t="inlineStr">
+      <c r="EJ3" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="EG3" t="inlineStr">
+      <c r="EK3" t="inlineStr">
         <is>
           <t>cast_no</t>
         </is>
       </c>
-      <c r="EH3" t="inlineStr">
+      <c r="EL3" t="inlineStr">
         <is>
           <t>rosette_position</t>
         </is>
       </c>
-      <c r="EI3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>phosphate_unit</t>
         </is>
       </c>
-      <c r="EJ3" t="inlineStr">
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>silicate_unit</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
         <is>
           <t>ammonium_unit</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>density_unit</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>par_unit</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>air_pressure_at_sea_level_unit</t>
         </is>
       </c>
     </row>
@@ -7971,7 +8051,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -8335,38 +8415,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC4" t="n">
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED4" t="n">
         <v>102.08878</v>
       </c>
-      <c r="ED4" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE4" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF4" t="n">
+        <v>24.262983</v>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH4" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF4" t="inlineStr">
+      <c r="EJ4" t="inlineStr">
         <is>
           <t>M5</t>
         </is>
       </c>
-      <c r="EG4" t="n">
+      <c r="EK4" t="n">
         <v>10</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EL4" t="n">
         <v>10</v>
       </c>
-      <c r="EI4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="EN4" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8527,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
+          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -8629,7 +8745,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
@@ -8993,38 +9109,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC5" t="n">
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED5" t="n">
         <v>97.14445000000001</v>
       </c>
-      <c r="ED5" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE5" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF5" t="n">
+        <v>25.569675</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0.28212</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI5" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF5" t="inlineStr">
+      <c r="EJ5" t="inlineStr">
         <is>
           <t>M5</t>
         </is>
       </c>
-      <c r="EG5" t="n">
+      <c r="EK5" t="n">
         <v>10</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EL5" t="n">
         <v>2</v>
       </c>
-      <c r="EI5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ5" t="inlineStr">
+      <c r="EN5" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9219,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
+          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -9287,7 +9437,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
@@ -9651,38 +9801,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC6" t="n">
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED6" t="n">
         <v>97.14445000000001</v>
       </c>
-      <c r="ED6" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE6" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF6" t="n">
+        <v>25.569675</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.28212</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI6" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF6" t="inlineStr">
+      <c r="EJ6" t="inlineStr">
         <is>
           <t>M5</t>
         </is>
       </c>
-      <c r="EG6" t="n">
+      <c r="EK6" t="n">
         <v>10</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EL6" t="n">
         <v>2</v>
       </c>
-      <c r="EI6" t="inlineStr">
+      <c r="EM6" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ6" t="inlineStr">
+      <c r="EN6" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -9945,7 +10129,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
@@ -10309,38 +10493,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC7" t="n">
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED7" t="n">
         <v>103.718094</v>
       </c>
-      <c r="ED7" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE7" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF7" t="n">
+        <v>24.722107</v>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH7" t="n">
+        <v>1011</v>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF7" t="inlineStr">
+      <c r="EJ7" t="inlineStr">
         <is>
           <t>DBO1-5</t>
         </is>
       </c>
-      <c r="EG7" t="n">
+      <c r="EK7" t="n">
         <v>16</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EL7" t="n">
         <v>10</v>
       </c>
-      <c r="EI7" t="inlineStr">
+      <c r="EM7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ7" t="inlineStr">
+      <c r="EN7" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10823,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
@@ -10967,38 +11187,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC8" t="n">
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED8" t="n">
         <v>103.718094</v>
       </c>
-      <c r="ED8" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE8" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF8" t="n">
+        <v>24.722107</v>
+      </c>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH8" t="n">
+        <v>1011</v>
+      </c>
+      <c r="EI8" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF8" t="inlineStr">
+      <c r="EJ8" t="inlineStr">
         <is>
           <t>DBO1-5</t>
         </is>
       </c>
-      <c r="EG8" t="n">
+      <c r="EK8" t="n">
         <v>16</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EL8" t="n">
         <v>10</v>
       </c>
-      <c r="EI8" t="inlineStr">
+      <c r="EM8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ8" t="inlineStr">
+      <c r="EN8" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11299,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
+          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -11261,7 +11517,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
@@ -11625,38 +11881,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC9" t="n">
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED9" t="n">
         <v>87.13648999999999</v>
       </c>
-      <c r="ED9" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE9" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF9" t="n">
+        <v>25.995764</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.23891</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>1011</v>
+      </c>
+      <c r="EI9" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF9" t="inlineStr">
+      <c r="EJ9" t="inlineStr">
         <is>
           <t>DBO1-5</t>
         </is>
       </c>
-      <c r="EG9" t="n">
+      <c r="EK9" t="n">
         <v>16</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EL9" t="n">
         <v>1</v>
       </c>
-      <c r="EI9" t="inlineStr">
+      <c r="EM9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ9" t="inlineStr">
+      <c r="EN9" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11991,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
+          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -11919,7 +12209,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -12283,38 +12573,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC10" t="n">
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED10" t="n">
         <v>87.13648999999999</v>
       </c>
-      <c r="ED10" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE10" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF10" t="n">
+        <v>25.995764</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.23891</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>1011</v>
+      </c>
+      <c r="EI10" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF10" t="inlineStr">
+      <c r="EJ10" t="inlineStr">
         <is>
           <t>DBO1-5</t>
         </is>
       </c>
-      <c r="EG10" t="n">
+      <c r="EK10" t="n">
         <v>16</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EL10" t="n">
         <v>1</v>
       </c>
-      <c r="EI10" t="inlineStr">
+      <c r="EM10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ10" t="inlineStr">
+      <c r="EN10" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -12359,7 +12683,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>E29.1B.DY2012 | E29.2B.DY2012</t>
+          <t>E29.2B.DY2012 | E29.1B.DY2012</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -12577,7 +12901,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -12941,38 +13265,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC11" t="n">
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED11" t="n">
         <v>104.15116</v>
       </c>
-      <c r="ED11" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE11" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF11" t="n">
+        <v>24.67387</v>
+      </c>
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH11" t="n">
+        <v>1015</v>
+      </c>
+      <c r="EI11" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF11" t="inlineStr">
+      <c r="EJ11" t="inlineStr">
         <is>
           <t>DBO1-1</t>
         </is>
       </c>
-      <c r="EG11" t="n">
+      <c r="EK11" t="n">
         <v>19</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EL11" t="n">
         <v>10</v>
       </c>
-      <c r="EI11" t="inlineStr">
+      <c r="EM11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ11" t="inlineStr">
+      <c r="EN11" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13377,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>E29.1B.DY2012 | E29.2B.DY2012</t>
+          <t>E29.2B.DY2012 | E29.1B.DY2012</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -13235,7 +13595,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
@@ -13599,38 +13959,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC12" t="n">
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED12" t="n">
         <v>104.15116</v>
       </c>
-      <c r="ED12" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE12" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF12" t="n">
+        <v>24.67387</v>
+      </c>
+      <c r="EG12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH12" t="n">
+        <v>1015</v>
+      </c>
+      <c r="EI12" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF12" t="inlineStr">
+      <c r="EJ12" t="inlineStr">
         <is>
           <t>DBO1-1</t>
         </is>
       </c>
-      <c r="EG12" t="n">
+      <c r="EK12" t="n">
         <v>19</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EL12" t="n">
         <v>10</v>
       </c>
-      <c r="EI12" t="inlineStr">
+      <c r="EM12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ12" t="inlineStr">
+      <c r="EN12" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP12" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ12" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER12" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -13675,7 +14071,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
+          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -13893,7 +14289,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
@@ -14257,38 +14653,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC13" t="n">
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED13" t="n">
         <v>87.75183</v>
       </c>
-      <c r="ED13" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE13" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF13" t="n">
+        <v>26.02947</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>1015</v>
+      </c>
+      <c r="EI13" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF13" t="inlineStr">
+      <c r="EJ13" t="inlineStr">
         <is>
           <t>DBO1-1</t>
         </is>
       </c>
-      <c r="EG13" t="n">
+      <c r="EK13" t="n">
         <v>19</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EL13" t="n">
         <v>1</v>
       </c>
-      <c r="EI13" t="inlineStr">
+      <c r="EM13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ13" t="inlineStr">
+      <c r="EN13" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER13" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14763,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
+          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -14551,7 +14981,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
@@ -14915,38 +15345,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC14" t="n">
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED14" t="n">
         <v>87.75183</v>
       </c>
-      <c r="ED14" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE14" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF14" t="n">
+        <v>26.02947</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>1015</v>
+      </c>
+      <c r="EI14" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF14" t="inlineStr">
+      <c r="EJ14" t="inlineStr">
         <is>
           <t>DBO1-1</t>
         </is>
       </c>
-      <c r="EG14" t="n">
+      <c r="EK14" t="n">
         <v>19</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EL14" t="n">
         <v>1</v>
       </c>
-      <c r="EI14" t="inlineStr">
+      <c r="EM14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ14" t="inlineStr">
+      <c r="EN14" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -14991,7 +15455,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
+          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -15209,7 +15673,7 @@
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
@@ -15573,38 +16037,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC15" t="n">
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED15" t="n">
         <v>103.464134</v>
       </c>
-      <c r="ED15" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE15" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF15" t="n">
+        <v>24.675959</v>
+      </c>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH15" t="n">
+        <v>1017</v>
+      </c>
+      <c r="EI15" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF15" t="inlineStr">
+      <c r="EJ15" t="inlineStr">
         <is>
           <t>DBO1-3</t>
         </is>
       </c>
-      <c r="EG15" t="n">
+      <c r="EK15" t="n">
         <v>22</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EL15" t="n">
         <v>9</v>
       </c>
-      <c r="EI15" t="inlineStr">
+      <c r="EM15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ15" t="inlineStr">
+      <c r="EN15" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -15649,7 +16149,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
+          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -15867,7 +16367,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -16231,38 +16731,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC16" t="n">
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED16" t="n">
         <v>103.464134</v>
       </c>
-      <c r="ED16" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE16" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF16" t="n">
+        <v>24.675959</v>
+      </c>
+      <c r="EG16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH16" t="n">
+        <v>1017</v>
+      </c>
+      <c r="EI16" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF16" t="inlineStr">
+      <c r="EJ16" t="inlineStr">
         <is>
           <t>DBO1-3</t>
         </is>
       </c>
-      <c r="EG16" t="n">
+      <c r="EK16" t="n">
         <v>22</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EL16" t="n">
         <v>9</v>
       </c>
-      <c r="EI16" t="inlineStr">
+      <c r="EM16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ16" t="inlineStr">
+      <c r="EN16" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP16" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ16" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -16525,7 +17061,7 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
@@ -16889,38 +17425,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC17" t="n">
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED17" t="n">
         <v>87.915344</v>
       </c>
-      <c r="ED17" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE17" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF17" t="n">
+        <v>26.027655</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>0.20113</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>1017</v>
+      </c>
+      <c r="EI17" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF17" t="inlineStr">
+      <c r="EJ17" t="inlineStr">
         <is>
           <t>DBO1-3</t>
         </is>
       </c>
-      <c r="EG17" t="n">
+      <c r="EK17" t="n">
         <v>22</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EL17" t="n">
         <v>1</v>
       </c>
-      <c r="EI17" t="inlineStr">
+      <c r="EM17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ17" t="inlineStr">
+      <c r="EN17" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP17" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ17" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER17" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -17183,7 +17753,7 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
@@ -17547,38 +18117,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC18" t="n">
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED18" t="n">
         <v>87.915344</v>
       </c>
-      <c r="ED18" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE18" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF18" t="n">
+        <v>26.027655</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>0.20113</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>1017</v>
+      </c>
+      <c r="EI18" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF18" t="inlineStr">
+      <c r="EJ18" t="inlineStr">
         <is>
           <t>DBO1-3</t>
         </is>
       </c>
-      <c r="EG18" t="n">
+      <c r="EK18" t="n">
         <v>22</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EL18" t="n">
         <v>1</v>
       </c>
-      <c r="EI18" t="inlineStr">
+      <c r="EM18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ18" t="inlineStr">
+      <c r="EN18" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ18" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER18" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -17623,7 +18227,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
+          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -17841,7 +18445,7 @@
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
@@ -18205,38 +18809,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC19" t="n">
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED19" t="n">
         <v>103.56534</v>
       </c>
-      <c r="ED19" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE19" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF19" t="n">
+        <v>24.650627</v>
+      </c>
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH19" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI19" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF19" t="inlineStr">
+      <c r="EJ19" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="EG19" t="n">
+      <c r="EK19" t="n">
         <v>24</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EL19" t="n">
         <v>9</v>
       </c>
-      <c r="EI19" t="inlineStr">
+      <c r="EM19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ19" t="inlineStr">
+      <c r="EN19" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18921,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
+          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -18499,7 +19139,7 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
@@ -18863,38 +19503,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC20" t="n">
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED20" t="n">
         <v>103.56534</v>
       </c>
-      <c r="ED20" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE20" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF20" t="n">
+        <v>24.650627</v>
+      </c>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH20" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI20" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF20" t="inlineStr">
+      <c r="EJ20" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="EG20" t="n">
+      <c r="EK20" t="n">
         <v>24</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EL20" t="n">
         <v>9</v>
       </c>
-      <c r="EI20" t="inlineStr">
+      <c r="EM20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ20" t="inlineStr">
+      <c r="EN20" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19833,7 @@
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
@@ -19521,38 +20197,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC21" t="n">
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED21" t="n">
         <v>86.29471599999999</v>
       </c>
-      <c r="ED21" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE21" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF21" t="n">
+        <v>25.996927</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>0.2012</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI21" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF21" t="inlineStr">
+      <c r="EJ21" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="EG21" t="n">
+      <c r="EK21" t="n">
         <v>24</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EL21" t="n">
         <v>2</v>
       </c>
-      <c r="EI21" t="inlineStr">
+      <c r="EM21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ21" t="inlineStr">
+      <c r="EN21" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -19815,7 +20525,7 @@
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
@@ -20179,38 +20889,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC22" t="n">
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED22" t="n">
         <v>86.29471599999999</v>
       </c>
-      <c r="ED22" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE22" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF22" t="n">
+        <v>25.996927</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>0.2012</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI22" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF22" t="inlineStr">
+      <c r="EJ22" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="EG22" t="n">
+      <c r="EK22" t="n">
         <v>24</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EL22" t="n">
         <v>2</v>
       </c>
-      <c r="EI22" t="inlineStr">
+      <c r="EM22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ22" t="inlineStr">
+      <c r="EN22" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -20473,7 +21217,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
@@ -20837,38 +21581,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC23" t="n">
+      <c r="EC23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED23" t="n">
         <v>104.3458</v>
       </c>
-      <c r="ED23" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE23" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF23" t="n">
+        <v>24.903261</v>
+      </c>
+      <c r="EG23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI23" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF23" t="inlineStr">
+      <c r="EJ23" t="inlineStr">
         <is>
           <t>DBO1-7</t>
         </is>
       </c>
-      <c r="EG23" t="n">
+      <c r="EK23" t="n">
         <v>26</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EL23" t="n">
         <v>9</v>
       </c>
-      <c r="EI23" t="inlineStr">
+      <c r="EM23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ23" t="inlineStr">
+      <c r="EN23" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP23" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ23" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER23" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -21131,7 +21911,7 @@
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
@@ -21495,38 +22275,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC24" t="n">
+      <c r="EC24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED24" t="n">
         <v>104.3458</v>
       </c>
-      <c r="ED24" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE24" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF24" t="n">
+        <v>24.903261</v>
+      </c>
+      <c r="EG24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI24" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF24" t="inlineStr">
+      <c r="EJ24" t="inlineStr">
         <is>
           <t>DBO1-7</t>
         </is>
       </c>
-      <c r="EG24" t="n">
+      <c r="EK24" t="n">
         <v>26</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EL24" t="n">
         <v>9</v>
       </c>
-      <c r="EI24" t="inlineStr">
+      <c r="EM24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ24" t="inlineStr">
+      <c r="EN24" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ24" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER24" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -21789,7 +22605,7 @@
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
@@ -22153,38 +22969,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC25" t="n">
+      <c r="EC25" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED25" t="n">
         <v>70.29581</v>
       </c>
-      <c r="ED25" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE25" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF25" t="n">
+        <v>26.086164</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0.24612</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI25" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF25" t="inlineStr">
+      <c r="EJ25" t="inlineStr">
         <is>
           <t>DBO1-7</t>
         </is>
       </c>
-      <c r="EG25" t="n">
+      <c r="EK25" t="n">
         <v>26</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EL25" t="n">
         <v>1</v>
       </c>
-      <c r="EI25" t="inlineStr">
+      <c r="EM25" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ25" t="inlineStr">
+      <c r="EN25" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ25" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER25" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -22447,7 +23297,7 @@
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>2021-01-14T00:00:00Z</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
@@ -22811,38 +23661,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC26" t="n">
+      <c r="EC26" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED26" t="n">
         <v>70.29581</v>
       </c>
-      <c r="ED26" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE26" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF26" t="n">
+        <v>26.086164</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>0.24612</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI26" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF26" t="inlineStr">
+      <c r="EJ26" t="inlineStr">
         <is>
           <t>DBO1-7</t>
         </is>
       </c>
-      <c r="EG26" t="n">
+      <c r="EK26" t="n">
         <v>26</v>
       </c>
-      <c r="EH26" t="n">
+      <c r="EL26" t="n">
         <v>1</v>
       </c>
-      <c r="EI26" t="inlineStr">
+      <c r="EM26" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ26" t="inlineStr">
+      <c r="EN26" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO26" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP26" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ26" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER26" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -23105,7 +23989,7 @@
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
@@ -23469,38 +24353,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC27" t="n">
+      <c r="EC27" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED27" t="n">
         <v>107.63129</v>
       </c>
-      <c r="ED27" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE27" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF27" t="n">
+        <v>25.074802</v>
+      </c>
+      <c r="EG27" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI27" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF27" t="inlineStr">
+      <c r="EJ27" t="inlineStr">
         <is>
           <t>DBO1-9</t>
         </is>
       </c>
-      <c r="EG27" t="n">
+      <c r="EK27" t="n">
         <v>28</v>
       </c>
-      <c r="EH27" t="n">
+      <c r="EL27" t="n">
         <v>10</v>
       </c>
-      <c r="EI27" t="inlineStr">
+      <c r="EM27" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ27" t="inlineStr">
+      <c r="EN27" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO27" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP27" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ27" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER27" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -23763,7 +24683,7 @@
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
@@ -24127,38 +25047,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC28" t="n">
+      <c r="EC28" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED28" t="n">
         <v>107.63129</v>
       </c>
-      <c r="ED28" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE28" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF28" t="n">
+        <v>25.074802</v>
+      </c>
+      <c r="EG28" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI28" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF28" t="inlineStr">
+      <c r="EJ28" t="inlineStr">
         <is>
           <t>DBO1-9</t>
         </is>
       </c>
-      <c r="EG28" t="n">
+      <c r="EK28" t="n">
         <v>28</v>
       </c>
-      <c r="EH28" t="n">
+      <c r="EL28" t="n">
         <v>10</v>
       </c>
-      <c r="EI28" t="inlineStr">
+      <c r="EM28" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ28" t="inlineStr">
+      <c r="EN28" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO28" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP28" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ28" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER28" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -24421,7 +25377,7 @@
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
@@ -24785,38 +25741,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC29" t="n">
+      <c r="EC29" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED29" t="n">
         <v>81.709305</v>
       </c>
-      <c r="ED29" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE29" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF29" t="n">
+        <v>26.308584</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>0.20265</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI29" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF29" t="inlineStr">
+      <c r="EJ29" t="inlineStr">
         <is>
           <t>DBO1-9</t>
         </is>
       </c>
-      <c r="EG29" t="n">
+      <c r="EK29" t="n">
         <v>28</v>
       </c>
-      <c r="EH29" t="n">
+      <c r="EL29" t="n">
         <v>2</v>
       </c>
-      <c r="EI29" t="inlineStr">
+      <c r="EM29" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ29" t="inlineStr">
+      <c r="EN29" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO29" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP29" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ29" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER29" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -25079,7 +26069,7 @@
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
@@ -25443,38 +26433,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC30" t="n">
+      <c r="EC30" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED30" t="n">
         <v>81.709305</v>
       </c>
-      <c r="ED30" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE30" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF30" t="n">
+        <v>26.308584</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>0.20265</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EI30" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF30" t="inlineStr">
+      <c r="EJ30" t="inlineStr">
         <is>
           <t>DBO1-9</t>
         </is>
       </c>
-      <c r="EG30" t="n">
+      <c r="EK30" t="n">
         <v>28</v>
       </c>
-      <c r="EH30" t="n">
+      <c r="EL30" t="n">
         <v>2</v>
       </c>
-      <c r="EI30" t="inlineStr">
+      <c r="EM30" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ30" t="inlineStr">
+      <c r="EN30" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO30" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP30" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ30" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER30" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -25737,7 +26761,7 @@
       </c>
       <c r="BC31" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD31" t="inlineStr">
@@ -26101,38 +27125,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC31" t="n">
+      <c r="EC31" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED31" t="n">
         <v>91.21622499999999</v>
       </c>
-      <c r="ED31" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE31" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF31" t="n">
+        <v>26.228727</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>0.20254</v>
+      </c>
+      <c r="EH31" t="n">
+        <v>1025</v>
+      </c>
+      <c r="EI31" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF31" t="inlineStr">
+      <c r="EJ31" t="inlineStr">
         <is>
           <t>DBO2-1</t>
         </is>
       </c>
-      <c r="EG31" t="n">
+      <c r="EK31" t="n">
         <v>30</v>
       </c>
-      <c r="EH31" t="n">
+      <c r="EL31" t="n">
         <v>2</v>
       </c>
-      <c r="EI31" t="inlineStr">
+      <c r="EM31" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ31" t="inlineStr">
+      <c r="EN31" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO31" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP31" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ31" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER31" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -26395,7 +27453,7 @@
       </c>
       <c r="BC32" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD32" t="inlineStr">
@@ -26759,38 +27817,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC32" t="n">
+      <c r="EC32" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED32" t="n">
         <v>91.21622499999999</v>
       </c>
-      <c r="ED32" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE32" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF32" t="n">
+        <v>26.228727</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>0.20254</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="EI32" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF32" t="inlineStr">
+      <c r="EJ32" t="inlineStr">
         <is>
           <t>DBO2-1</t>
         </is>
       </c>
-      <c r="EG32" t="n">
+      <c r="EK32" t="n">
         <v>30</v>
       </c>
-      <c r="EH32" t="n">
+      <c r="EL32" t="n">
         <v>2</v>
       </c>
-      <c r="EI32" t="inlineStr">
+      <c r="EM32" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ32" t="inlineStr">
+      <c r="EN32" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO32" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP32" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ32" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER32" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -26835,7 +27927,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -27053,7 +28145,7 @@
       </c>
       <c r="BC33" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD33" t="inlineStr">
@@ -27417,38 +28509,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC33" t="n">
+      <c r="EC33" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED33" t="n">
         <v>92.21986</v>
       </c>
-      <c r="ED33" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE33" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF33" t="n">
+        <v>26.214827</v>
+      </c>
+      <c r="EG33" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH33" t="n">
+        <v>1025</v>
+      </c>
+      <c r="EI33" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF33" t="inlineStr">
+      <c r="EJ33" t="inlineStr">
         <is>
           <t>DBO2-1</t>
         </is>
       </c>
-      <c r="EG33" t="n">
+      <c r="EK33" t="n">
         <v>30</v>
       </c>
-      <c r="EH33" t="n">
+      <c r="EL33" t="n">
         <v>8</v>
       </c>
-      <c r="EI33" t="inlineStr">
+      <c r="EM33" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ33" t="inlineStr">
+      <c r="EN33" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO33" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP33" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ33" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER33" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -27493,7 +28621,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -27711,7 +28839,7 @@
       </c>
       <c r="BC34" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD34" t="inlineStr">
@@ -28075,38 +29203,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC34" t="n">
+      <c r="EC34" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED34" t="n">
         <v>92.21986</v>
       </c>
-      <c r="ED34" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE34" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF34" t="n">
+        <v>26.214827</v>
+      </c>
+      <c r="EG34" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH34" t="n">
+        <v>1025</v>
+      </c>
+      <c r="EI34" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF34" t="inlineStr">
+      <c r="EJ34" t="inlineStr">
         <is>
           <t>DBO2-1</t>
         </is>
       </c>
-      <c r="EG34" t="n">
+      <c r="EK34" t="n">
         <v>30</v>
       </c>
-      <c r="EH34" t="n">
+      <c r="EL34" t="n">
         <v>8</v>
       </c>
-      <c r="EI34" t="inlineStr">
+      <c r="EM34" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ34" t="inlineStr">
+      <c r="EN34" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO34" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP34" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ34" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER34" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -28369,7 +29533,7 @@
       </c>
       <c r="BC35" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD35" t="inlineStr">
@@ -28733,38 +29897,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC35" t="n">
+      <c r="EC35" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED35" t="n">
         <v>102.00473</v>
       </c>
-      <c r="ED35" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE35" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF35" t="n">
+        <v>25.09489</v>
+      </c>
+      <c r="EG35" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH35" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI35" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF35" t="inlineStr">
+      <c r="EJ35" t="inlineStr">
         <is>
           <t>DBO2-3</t>
         </is>
       </c>
-      <c r="EG35" t="n">
+      <c r="EK35" t="n">
         <v>32</v>
       </c>
-      <c r="EH35" t="n">
+      <c r="EL35" t="n">
         <v>8</v>
       </c>
-      <c r="EI35" t="inlineStr">
+      <c r="EM35" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ35" t="inlineStr">
+      <c r="EN35" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO35" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP35" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ35" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER35" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -29027,7 +30227,7 @@
       </c>
       <c r="BC36" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD36" t="inlineStr">
@@ -29391,38 +30591,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC36" t="n">
+      <c r="EC36" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED36" t="n">
         <v>102.00473</v>
       </c>
-      <c r="ED36" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE36" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF36" t="n">
+        <v>25.09489</v>
+      </c>
+      <c r="EG36" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH36" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI36" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF36" t="inlineStr">
+      <c r="EJ36" t="inlineStr">
         <is>
           <t>DBO2-3</t>
         </is>
       </c>
-      <c r="EG36" t="n">
+      <c r="EK36" t="n">
         <v>32</v>
       </c>
-      <c r="EH36" t="n">
+      <c r="EL36" t="n">
         <v>8</v>
       </c>
-      <c r="EI36" t="inlineStr">
+      <c r="EM36" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ36" t="inlineStr">
+      <c r="EN36" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO36" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP36" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ36" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER36" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -29685,7 +30921,7 @@
       </c>
       <c r="BC37" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD37" t="inlineStr">
@@ -30044,35 +31280,67 @@
         <v>1.749</v>
       </c>
       <c r="EC37" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="ED37" t="n">
         <v>86.77258999999999</v>
       </c>
-      <c r="ED37" t="n">
+      <c r="EE37" t="n">
         <v>4.56</v>
       </c>
-      <c r="EE37" t="inlineStr">
+      <c r="EF37" t="n">
+        <v>26.003656</v>
+      </c>
+      <c r="EG37" t="n">
+        <v>0.57974</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI37" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF37" t="inlineStr">
+      <c r="EJ37" t="inlineStr">
         <is>
           <t>DBO2-3</t>
         </is>
       </c>
-      <c r="EG37" t="n">
+      <c r="EK37" t="n">
         <v>32</v>
       </c>
-      <c r="EH37" t="n">
+      <c r="EL37" t="n">
         <v>2</v>
       </c>
-      <c r="EI37" t="inlineStr">
+      <c r="EM37" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ37" t="inlineStr">
+      <c r="EN37" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO37" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP37" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ37" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER37" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -30335,7 +31603,7 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD38" t="inlineStr">
@@ -30694,35 +31962,67 @@
         <v>1.749</v>
       </c>
       <c r="EC38" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="ED38" t="n">
         <v>86.77258999999999</v>
       </c>
-      <c r="ED38" t="n">
+      <c r="EE38" t="n">
         <v>4.56</v>
       </c>
-      <c r="EE38" t="inlineStr">
+      <c r="EF38" t="n">
+        <v>26.003656</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>0.57974</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI38" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF38" t="inlineStr">
+      <c r="EJ38" t="inlineStr">
         <is>
           <t>DBO2-3</t>
         </is>
       </c>
-      <c r="EG38" t="n">
+      <c r="EK38" t="n">
         <v>32</v>
       </c>
-      <c r="EH38" t="n">
+      <c r="EL38" t="n">
         <v>2</v>
       </c>
-      <c r="EI38" t="inlineStr">
+      <c r="EM38" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ38" t="inlineStr">
+      <c r="EN38" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO38" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP38" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ38" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER38" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -30985,7 +32285,7 @@
       </c>
       <c r="BC39" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD39" t="inlineStr">
@@ -31349,38 +32649,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC39" t="n">
+      <c r="EC39" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED39" t="n">
         <v>109.566795</v>
       </c>
-      <c r="ED39" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE39" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF39" t="n">
+        <v>25.459915</v>
+      </c>
+      <c r="EG39" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH39" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI39" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF39" t="inlineStr">
+      <c r="EJ39" t="inlineStr">
         <is>
           <t>DBO2-5</t>
         </is>
       </c>
-      <c r="EG39" t="n">
+      <c r="EK39" t="n">
         <v>34</v>
       </c>
-      <c r="EH39" t="n">
+      <c r="EL39" t="n">
         <v>8</v>
       </c>
-      <c r="EI39" t="inlineStr">
+      <c r="EM39" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ39" t="inlineStr">
+      <c r="EN39" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO39" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP39" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ39" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER39" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -31643,7 +32979,7 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD40" t="inlineStr">
@@ -32007,38 +33343,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC40" t="n">
+      <c r="EC40" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED40" t="n">
         <v>76.75786600000001</v>
       </c>
-      <c r="ED40" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE40" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF40" t="n">
+        <v>26.334269</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>0.20428</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI40" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF40" t="inlineStr">
+      <c r="EJ40" t="inlineStr">
         <is>
           <t>DBO2-5</t>
         </is>
       </c>
-      <c r="EG40" t="n">
+      <c r="EK40" t="n">
         <v>34</v>
       </c>
-      <c r="EH40" t="n">
+      <c r="EL40" t="n">
         <v>2</v>
       </c>
-      <c r="EI40" t="inlineStr">
+      <c r="EM40" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ40" t="inlineStr">
+      <c r="EN40" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO40" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP40" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ40" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER40" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -32301,7 +33671,7 @@
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD41" t="inlineStr">
@@ -32665,38 +34035,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC41" t="n">
+      <c r="EC41" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED41" t="n">
         <v>76.75786600000001</v>
       </c>
-      <c r="ED41" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE41" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF41" t="n">
+        <v>26.334269</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>0.20428</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI41" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF41" t="inlineStr">
+      <c r="EJ41" t="inlineStr">
         <is>
           <t>DBO2-5</t>
         </is>
       </c>
-      <c r="EG41" t="n">
+      <c r="EK41" t="n">
         <v>34</v>
       </c>
-      <c r="EH41" t="n">
+      <c r="EL41" t="n">
         <v>2</v>
       </c>
-      <c r="EI41" t="inlineStr">
+      <c r="EM41" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ41" t="inlineStr">
+      <c r="EN41" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO41" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP41" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ41" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER41" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -32741,7 +34145,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -32959,7 +34363,7 @@
       </c>
       <c r="BC42" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD42" t="inlineStr">
@@ -33323,38 +34727,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC42" t="n">
+      <c r="EC42" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED42" t="n">
         <v>108.535515</v>
       </c>
-      <c r="ED42" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE42" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF42" t="n">
+        <v>25.599323</v>
+      </c>
+      <c r="EG42" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH42" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI42" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF42" t="inlineStr">
+      <c r="EJ42" t="inlineStr">
         <is>
           <t>DBO2-4</t>
         </is>
       </c>
-      <c r="EG42" t="n">
+      <c r="EK42" t="n">
         <v>35</v>
       </c>
-      <c r="EH42" t="n">
+      <c r="EL42" t="n">
         <v>7</v>
       </c>
-      <c r="EI42" t="inlineStr">
+      <c r="EM42" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ42" t="inlineStr">
+      <c r="EN42" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO42" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP42" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ42" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER42" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -33399,7 +34839,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -33617,7 +35057,7 @@
       </c>
       <c r="BC43" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD43" t="inlineStr">
@@ -33981,38 +35421,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC43" t="n">
+      <c r="EC43" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED43" t="n">
         <v>108.535515</v>
       </c>
-      <c r="ED43" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE43" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF43" t="n">
+        <v>25.599323</v>
+      </c>
+      <c r="EG43" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH43" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI43" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF43" t="inlineStr">
+      <c r="EJ43" t="inlineStr">
         <is>
           <t>DBO2-4</t>
         </is>
       </c>
-      <c r="EG43" t="n">
+      <c r="EK43" t="n">
         <v>35</v>
       </c>
-      <c r="EH43" t="n">
+      <c r="EL43" t="n">
         <v>7</v>
       </c>
-      <c r="EI43" t="inlineStr">
+      <c r="EM43" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ43" t="inlineStr">
+      <c r="EN43" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO43" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP43" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ43" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER43" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -34057,7 +35533,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>E47.1B.DY2012 | E47.2B.DY2012</t>
+          <t>E47.2B.DY2012 | E47.1B.DY2012</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -34275,7 +35751,7 @@
       </c>
       <c r="BC44" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD44" t="inlineStr">
@@ -34634,35 +36110,67 @@
         <v>2.324</v>
       </c>
       <c r="EC44" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="ED44" t="n">
         <v>82.45469</v>
       </c>
-      <c r="ED44" t="n">
+      <c r="EE44" t="n">
         <v>5.92</v>
       </c>
-      <c r="EE44" t="inlineStr">
+      <c r="EF44" t="n">
+        <v>26.342598</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>0.20377</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI44" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF44" t="inlineStr">
+      <c r="EJ44" t="inlineStr">
         <is>
           <t>DBO2-4</t>
         </is>
       </c>
-      <c r="EG44" t="n">
+      <c r="EK44" t="n">
         <v>35</v>
       </c>
-      <c r="EH44" t="n">
+      <c r="EL44" t="n">
         <v>2</v>
       </c>
-      <c r="EI44" t="inlineStr">
+      <c r="EM44" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ44" t="inlineStr">
+      <c r="EN44" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO44" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP44" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ44" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER44" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -34707,7 +36215,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>E47.1B.DY2012 | E47.2B.DY2012</t>
+          <t>E47.2B.DY2012 | E47.1B.DY2012</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -34925,7 +36433,7 @@
       </c>
       <c r="BC45" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD45" t="inlineStr">
@@ -35284,35 +36792,67 @@
         <v>2.324</v>
       </c>
       <c r="EC45" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="ED45" t="n">
         <v>82.45469</v>
       </c>
-      <c r="ED45" t="n">
+      <c r="EE45" t="n">
         <v>5.92</v>
       </c>
-      <c r="EE45" t="inlineStr">
+      <c r="EF45" t="n">
+        <v>26.342598</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>0.20377</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EI45" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF45" t="inlineStr">
+      <c r="EJ45" t="inlineStr">
         <is>
           <t>DBO2-4</t>
         </is>
       </c>
-      <c r="EG45" t="n">
+      <c r="EK45" t="n">
         <v>35</v>
       </c>
-      <c r="EH45" t="n">
+      <c r="EL45" t="n">
         <v>2</v>
       </c>
-      <c r="EI45" t="inlineStr">
+      <c r="EM45" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ45" t="inlineStr">
+      <c r="EN45" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO45" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP45" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ45" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER45" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -35575,7 +37115,7 @@
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD46" t="inlineStr">
@@ -35939,38 +37479,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC46" t="n">
+      <c r="EC46" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED46" t="n">
         <v>105.068954</v>
       </c>
-      <c r="ED46" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE46" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF46" t="n">
+        <v>24.67593</v>
+      </c>
+      <c r="EG46" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH46" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI46" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF46" t="inlineStr">
+      <c r="EJ46" t="inlineStr">
         <is>
           <t>DBO3-8</t>
         </is>
       </c>
-      <c r="EG46" t="n">
+      <c r="EK46" t="n">
         <v>36</v>
       </c>
-      <c r="EH46" t="n">
+      <c r="EL46" t="n">
         <v>7</v>
       </c>
-      <c r="EI46" t="inlineStr">
+      <c r="EM46" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ46" t="inlineStr">
+      <c r="EN46" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO46" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP46" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ46" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER46" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -36233,7 +37809,7 @@
       </c>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD47" t="inlineStr">
@@ -36597,38 +38173,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC47" t="n">
+      <c r="EC47" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED47" t="n">
         <v>105.068954</v>
       </c>
-      <c r="ED47" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE47" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF47" t="n">
+        <v>24.67593</v>
+      </c>
+      <c r="EG47" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH47" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI47" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF47" t="inlineStr">
+      <c r="EJ47" t="inlineStr">
         <is>
           <t>DBO3-8</t>
         </is>
       </c>
-      <c r="EG47" t="n">
+      <c r="EK47" t="n">
         <v>36</v>
       </c>
-      <c r="EH47" t="n">
+      <c r="EL47" t="n">
         <v>7</v>
       </c>
-      <c r="EI47" t="inlineStr">
+      <c r="EM47" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ47" t="inlineStr">
+      <c r="EN47" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO47" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP47" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ47" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER47" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -36673,7 +38285,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
+          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -36891,7 +38503,7 @@
       </c>
       <c r="BC48" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD48" t="inlineStr">
@@ -37255,38 +38867,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC48" t="n">
+      <c r="EC48" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED48" t="n">
         <v>76.93848</v>
       </c>
-      <c r="ED48" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE48" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF48" t="n">
+        <v>26.318853</v>
+      </c>
+      <c r="EG48" t="n">
+        <v>0.20419</v>
+      </c>
+      <c r="EH48" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI48" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF48" t="inlineStr">
+      <c r="EJ48" t="inlineStr">
         <is>
           <t>DBO3-8</t>
         </is>
       </c>
-      <c r="EG48" t="n">
+      <c r="EK48" t="n">
         <v>36</v>
       </c>
-      <c r="EH48" t="n">
+      <c r="EL48" t="n">
         <v>1</v>
       </c>
-      <c r="EI48" t="inlineStr">
+      <c r="EM48" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ48" t="inlineStr">
+      <c r="EN48" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO48" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP48" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ48" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER48" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -37331,7 +38977,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
+          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -37549,7 +39195,7 @@
       </c>
       <c r="BC49" t="inlineStr">
         <is>
-          <t>2021-01-01T00:00:00Z</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD49" t="inlineStr">
@@ -37913,38 +39559,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC49" t="n">
+      <c r="EC49" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED49" t="n">
         <v>76.93848</v>
       </c>
-      <c r="ED49" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE49" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF49" t="n">
+        <v>26.318853</v>
+      </c>
+      <c r="EG49" t="n">
+        <v>0.20419</v>
+      </c>
+      <c r="EH49" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI49" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF49" t="inlineStr">
+      <c r="EJ49" t="inlineStr">
         <is>
           <t>DBO3-8</t>
         </is>
       </c>
-      <c r="EG49" t="n">
+      <c r="EK49" t="n">
         <v>36</v>
       </c>
-      <c r="EH49" t="n">
+      <c r="EL49" t="n">
         <v>1</v>
       </c>
-      <c r="EI49" t="inlineStr">
+      <c r="EM49" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ49" t="inlineStr">
+      <c r="EN49" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO49" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP49" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ49" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER49" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -37989,7 +39669,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>E50.1B.DY2012 | E50.2B.DY2012</t>
+          <t>E50.2B.DY2012 | E50.1B.DY2012</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -38207,7 +39887,7 @@
       </c>
       <c r="BC50" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD50" t="inlineStr">
@@ -38571,38 +40251,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC50" t="n">
+      <c r="EC50" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED50" t="n">
         <v>91.45789000000001</v>
       </c>
-      <c r="ED50" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE50" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF50" t="n">
+        <v>26.303421</v>
+      </c>
+      <c r="EG50" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH50" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI50" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF50" t="inlineStr">
+      <c r="EJ50" t="inlineStr">
         <is>
           <t>DBO3-6</t>
         </is>
       </c>
-      <c r="EG50" t="n">
+      <c r="EK50" t="n">
         <v>39</v>
       </c>
-      <c r="EH50" t="n">
+      <c r="EL50" t="n">
         <v>7</v>
       </c>
-      <c r="EI50" t="inlineStr">
+      <c r="EM50" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ50" t="inlineStr">
+      <c r="EN50" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO50" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP50" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ50" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER50" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -38647,7 +40363,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>E50.1B.DY2012 | E50.2B.DY2012</t>
+          <t>E50.2B.DY2012 | E50.1B.DY2012</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -38865,7 +40581,7 @@
       </c>
       <c r="BC51" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD51" t="inlineStr">
@@ -39229,38 +40945,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC51" t="n">
+      <c r="EC51" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED51" t="n">
         <v>91.45789000000001</v>
       </c>
-      <c r="ED51" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE51" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF51" t="n">
+        <v>26.303421</v>
+      </c>
+      <c r="EG51" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH51" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI51" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF51" t="inlineStr">
+      <c r="EJ51" t="inlineStr">
         <is>
           <t>DBO3-6</t>
         </is>
       </c>
-      <c r="EG51" t="n">
+      <c r="EK51" t="n">
         <v>39</v>
       </c>
-      <c r="EH51" t="n">
+      <c r="EL51" t="n">
         <v>7</v>
       </c>
-      <c r="EI51" t="inlineStr">
+      <c r="EM51" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ51" t="inlineStr">
+      <c r="EN51" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO51" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP51" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ51" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER51" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -39305,7 +41057,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -39523,7 +41275,7 @@
       </c>
       <c r="BC52" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD52" t="inlineStr">
@@ -39887,38 +41639,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC52" t="n">
+      <c r="EC52" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED52" t="n">
         <v>84.60514999999999</v>
       </c>
-      <c r="ED52" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE52" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF52" t="n">
+        <v>26.360245</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>0.20197</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI52" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF52" t="inlineStr">
+      <c r="EJ52" t="inlineStr">
         <is>
           <t>DBO3-6</t>
         </is>
       </c>
-      <c r="EG52" t="n">
+      <c r="EK52" t="n">
         <v>39</v>
       </c>
-      <c r="EH52" t="n">
+      <c r="EL52" t="n">
         <v>2</v>
       </c>
-      <c r="EI52" t="inlineStr">
+      <c r="EM52" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ52" t="inlineStr">
+      <c r="EN52" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO52" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP52" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ52" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER52" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -39963,7 +41749,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -40181,7 +41967,7 @@
       </c>
       <c r="BC53" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD53" t="inlineStr">
@@ -40545,38 +42331,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC53" t="n">
+      <c r="EC53" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED53" t="n">
         <v>84.60514999999999</v>
       </c>
-      <c r="ED53" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE53" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF53" t="n">
+        <v>26.360245</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>0.20197</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI53" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF53" t="inlineStr">
+      <c r="EJ53" t="inlineStr">
         <is>
           <t>DBO3-6</t>
         </is>
       </c>
-      <c r="EG53" t="n">
+      <c r="EK53" t="n">
         <v>39</v>
       </c>
-      <c r="EH53" t="n">
+      <c r="EL53" t="n">
         <v>2</v>
       </c>
-      <c r="EI53" t="inlineStr">
+      <c r="EM53" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ53" t="inlineStr">
+      <c r="EN53" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO53" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP53" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ53" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER53" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -40839,7 +42659,7 @@
       </c>
       <c r="BC54" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD54" t="inlineStr">
@@ -41203,38 +43023,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC54" t="n">
+      <c r="EC54" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED54" t="n">
         <v>101.19079</v>
       </c>
-      <c r="ED54" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE54" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF54" t="n">
+        <v>22.59172</v>
+      </c>
+      <c r="EG54" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH54" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI54" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF54" t="inlineStr">
+      <c r="EJ54" t="inlineStr">
         <is>
           <t>DBO3-3</t>
         </is>
       </c>
-      <c r="EG54" t="n">
+      <c r="EK54" t="n">
         <v>42</v>
       </c>
-      <c r="EH54" t="n">
+      <c r="EL54" t="n">
         <v>7</v>
       </c>
-      <c r="EI54" t="inlineStr">
+      <c r="EM54" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ54" t="inlineStr">
+      <c r="EN54" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO54" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP54" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ54" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER54" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -41497,7 +43353,7 @@
       </c>
       <c r="BC55" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD55" t="inlineStr">
@@ -41861,38 +43717,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC55" t="n">
+      <c r="EC55" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED55" t="n">
         <v>101.19079</v>
       </c>
-      <c r="ED55" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE55" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF55" t="n">
+        <v>22.59172</v>
+      </c>
+      <c r="EG55" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH55" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI55" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF55" t="inlineStr">
+      <c r="EJ55" t="inlineStr">
         <is>
           <t>DBO3-3</t>
         </is>
       </c>
-      <c r="EG55" t="n">
+      <c r="EK55" t="n">
         <v>42</v>
       </c>
-      <c r="EH55" t="n">
+      <c r="EL55" t="n">
         <v>7</v>
       </c>
-      <c r="EI55" t="inlineStr">
+      <c r="EM55" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ55" t="inlineStr">
+      <c r="EN55" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO55" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP55" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ55" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER55" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -42155,7 +44047,7 @@
       </c>
       <c r="BC56" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD56" t="inlineStr">
@@ -42514,35 +44406,67 @@
         <v>1.319</v>
       </c>
       <c r="EC56" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="ED56" t="n">
         <v>86.97957</v>
       </c>
-      <c r="ED56" t="n">
+      <c r="EE56" t="n">
         <v>4.94</v>
       </c>
-      <c r="EE56" t="inlineStr">
+      <c r="EF56" t="n">
+        <v>25.552996</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI56" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF56" t="inlineStr">
+      <c r="EJ56" t="inlineStr">
         <is>
           <t>DBO3-3</t>
         </is>
       </c>
-      <c r="EG56" t="n">
+      <c r="EK56" t="n">
         <v>42</v>
       </c>
-      <c r="EH56" t="n">
+      <c r="EL56" t="n">
         <v>2</v>
       </c>
-      <c r="EI56" t="inlineStr">
+      <c r="EM56" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ56" t="inlineStr">
+      <c r="EN56" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO56" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP56" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ56" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER56" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -42805,7 +44729,7 @@
       </c>
       <c r="BC57" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD57" t="inlineStr">
@@ -43164,35 +45088,67 @@
         <v>1.319</v>
       </c>
       <c r="EC57" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="ED57" t="n">
         <v>86.97957</v>
       </c>
-      <c r="ED57" t="n">
+      <c r="EE57" t="n">
         <v>4.94</v>
       </c>
-      <c r="EE57" t="inlineStr">
+      <c r="EF57" t="n">
+        <v>25.552996</v>
+      </c>
+      <c r="EG57" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH57" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI57" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF57" t="inlineStr">
+      <c r="EJ57" t="inlineStr">
         <is>
           <t>DBO3-3</t>
         </is>
       </c>
-      <c r="EG57" t="n">
+      <c r="EK57" t="n">
         <v>42</v>
       </c>
-      <c r="EH57" t="n">
+      <c r="EL57" t="n">
         <v>2</v>
       </c>
-      <c r="EI57" t="inlineStr">
+      <c r="EM57" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ57" t="inlineStr">
+      <c r="EN57" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO57" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP57" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ57" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER57" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -43455,7 +45411,7 @@
       </c>
       <c r="BC58" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD58" t="inlineStr">
@@ -43819,38 +45775,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC58" t="n">
+      <c r="EC58" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED58" t="n">
         <v>98.939384</v>
       </c>
-      <c r="ED58" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE58" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF58" t="n">
+        <v>23.624138</v>
+      </c>
+      <c r="EG58" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH58" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI58" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF58" t="inlineStr">
+      <c r="EJ58" t="inlineStr">
         <is>
           <t>DBO3-1</t>
         </is>
       </c>
-      <c r="EG58" t="n">
+      <c r="EK58" t="n">
         <v>43</v>
       </c>
-      <c r="EH58" t="n">
+      <c r="EL58" t="n">
         <v>7</v>
       </c>
-      <c r="EI58" t="inlineStr">
+      <c r="EM58" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ58" t="inlineStr">
+      <c r="EN58" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO58" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP58" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ58" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER58" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -44113,7 +46105,7 @@
       </c>
       <c r="BC59" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD59" t="inlineStr">
@@ -44477,38 +46469,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC59" t="n">
+      <c r="EC59" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED59" t="n">
         <v>98.939384</v>
       </c>
-      <c r="ED59" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE59" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF59" t="n">
+        <v>23.624138</v>
+      </c>
+      <c r="EG59" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH59" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI59" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF59" t="inlineStr">
+      <c r="EJ59" t="inlineStr">
         <is>
           <t>DBO3-1</t>
         </is>
       </c>
-      <c r="EG59" t="n">
+      <c r="EK59" t="n">
         <v>43</v>
       </c>
-      <c r="EH59" t="n">
+      <c r="EL59" t="n">
         <v>7</v>
       </c>
-      <c r="EI59" t="inlineStr">
+      <c r="EM59" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ59" t="inlineStr">
+      <c r="EN59" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO59" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP59" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ59" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER59" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -44771,7 +46799,7 @@
       </c>
       <c r="BC60" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD60" t="inlineStr">
@@ -45135,38 +47163,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC60" t="n">
+      <c r="EC60" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED60" t="n">
         <v>90.28558</v>
       </c>
-      <c r="ED60" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE60" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF60" t="n">
+        <v>25.080416</v>
+      </c>
+      <c r="EG60" t="n">
+        <v>0.20168</v>
+      </c>
+      <c r="EH60" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI60" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF60" t="inlineStr">
+      <c r="EJ60" t="inlineStr">
         <is>
           <t>DBO3-1</t>
         </is>
       </c>
-      <c r="EG60" t="n">
+      <c r="EK60" t="n">
         <v>43</v>
       </c>
-      <c r="EH60" t="n">
+      <c r="EL60" t="n">
         <v>1</v>
       </c>
-      <c r="EI60" t="inlineStr">
+      <c r="EM60" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ60" t="inlineStr">
+      <c r="EN60" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO60" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP60" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ60" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER60" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -45429,7 +47491,7 @@
       </c>
       <c r="BC61" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD61" t="inlineStr">
@@ -45793,38 +47855,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC61" t="n">
+      <c r="EC61" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED61" t="n">
         <v>90.28558</v>
       </c>
-      <c r="ED61" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE61" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF61" t="n">
+        <v>25.080416</v>
+      </c>
+      <c r="EG61" t="n">
+        <v>0.20168</v>
+      </c>
+      <c r="EH61" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EI61" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF61" t="inlineStr">
+      <c r="EJ61" t="inlineStr">
         <is>
           <t>DBO3-1</t>
         </is>
       </c>
-      <c r="EG61" t="n">
+      <c r="EK61" t="n">
         <v>43</v>
       </c>
-      <c r="EH61" t="n">
+      <c r="EL61" t="n">
         <v>1</v>
       </c>
-      <c r="EI61" t="inlineStr">
+      <c r="EM61" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ61" t="inlineStr">
+      <c r="EN61" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO61" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP61" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ61" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER61" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -45869,7 +47965,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>E57.1B.DY2012 | E57.2B.DY2012</t>
+          <t>E57.2B.DY2012 | E57.1B.DY2012</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -46087,7 +48183,7 @@
       </c>
       <c r="BC62" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD62" t="inlineStr">
@@ -46451,38 +48547,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC62" t="n">
+      <c r="EC62" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED62" t="n">
         <v>102.66733</v>
       </c>
-      <c r="ED62" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE62" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF62" t="n">
+        <v>24.012028</v>
+      </c>
+      <c r="EG62" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH62" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI62" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF62" t="inlineStr">
+      <c r="EJ62" t="inlineStr">
         <is>
           <t>IC10</t>
         </is>
       </c>
-      <c r="EG62" t="n">
+      <c r="EK62" t="n">
         <v>50</v>
       </c>
-      <c r="EH62" t="n">
+      <c r="EL62" t="n">
         <v>7</v>
       </c>
-      <c r="EI62" t="inlineStr">
+      <c r="EM62" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ62" t="inlineStr">
+      <c r="EN62" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO62" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP62" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ62" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER62" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -46527,7 +48659,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>E57.1B.DY2012 | E57.2B.DY2012</t>
+          <t>E57.2B.DY2012 | E57.1B.DY2012</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -46745,7 +48877,7 @@
       </c>
       <c r="BC63" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD63" t="inlineStr">
@@ -47109,38 +49241,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC63" t="n">
+      <c r="EC63" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED63" t="n">
         <v>102.66733</v>
       </c>
-      <c r="ED63" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE63" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF63" t="n">
+        <v>24.012028</v>
+      </c>
+      <c r="EG63" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH63" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI63" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF63" t="inlineStr">
+      <c r="EJ63" t="inlineStr">
         <is>
           <t>IC10</t>
         </is>
       </c>
-      <c r="EG63" t="n">
+      <c r="EK63" t="n">
         <v>50</v>
       </c>
-      <c r="EH63" t="n">
+      <c r="EL63" t="n">
         <v>7</v>
       </c>
-      <c r="EI63" t="inlineStr">
+      <c r="EM63" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ63" t="inlineStr">
+      <c r="EN63" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO63" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP63" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ63" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER63" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -47185,7 +49353,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
+          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -47403,7 +49571,7 @@
       </c>
       <c r="BC64" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD64" t="inlineStr">
@@ -47762,35 +49930,67 @@
         <v>2.031</v>
       </c>
       <c r="EC64" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="ED64" t="n">
         <v>84.639366</v>
       </c>
-      <c r="ED64" t="n">
+      <c r="EE64" t="n">
         <v>4.48</v>
       </c>
-      <c r="EE64" t="inlineStr">
+      <c r="EF64" t="n">
+        <v>26.40865</v>
+      </c>
+      <c r="EG64" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="EH64" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI64" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF64" t="inlineStr">
+      <c r="EJ64" t="inlineStr">
         <is>
           <t>IC10</t>
         </is>
       </c>
-      <c r="EG64" t="n">
+      <c r="EK64" t="n">
         <v>50</v>
       </c>
-      <c r="EH64" t="n">
+      <c r="EL64" t="n">
         <v>2</v>
       </c>
-      <c r="EI64" t="inlineStr">
+      <c r="EM64" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ64" t="inlineStr">
+      <c r="EN64" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO64" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP64" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ64" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER64" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -47835,7 +50035,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
+          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -48053,7 +50253,7 @@
       </c>
       <c r="BC65" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD65" t="inlineStr">
@@ -48412,35 +50612,67 @@
         <v>2.031</v>
       </c>
       <c r="EC65" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="ED65" t="n">
         <v>84.639366</v>
       </c>
-      <c r="ED65" t="n">
+      <c r="EE65" t="n">
         <v>4.48</v>
       </c>
-      <c r="EE65" t="inlineStr">
+      <c r="EF65" t="n">
+        <v>26.40865</v>
+      </c>
+      <c r="EG65" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="EH65" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EI65" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF65" t="inlineStr">
+      <c r="EJ65" t="inlineStr">
         <is>
           <t>IC10</t>
         </is>
       </c>
-      <c r="EG65" t="n">
+      <c r="EK65" t="n">
         <v>50</v>
       </c>
-      <c r="EH65" t="n">
+      <c r="EL65" t="n">
         <v>2</v>
       </c>
-      <c r="EI65" t="inlineStr">
+      <c r="EM65" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ65" t="inlineStr">
+      <c r="EN65" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO65" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP65" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ65" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER65" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -48485,7 +50717,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
+          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -48703,7 +50935,7 @@
       </c>
       <c r="BC66" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD66" t="inlineStr">
@@ -49067,38 +51299,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC66" t="n">
+      <c r="EC66" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED66" t="n">
         <v>103.30514</v>
       </c>
-      <c r="ED66" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE66" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF66" t="n">
+        <v>22.401411</v>
+      </c>
+      <c r="EG66" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH66" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI66" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF66" t="inlineStr">
+      <c r="EJ66" t="inlineStr">
         <is>
           <t>DBO4-5</t>
         </is>
       </c>
-      <c r="EG66" t="n">
+      <c r="EK66" t="n">
         <v>52</v>
       </c>
-      <c r="EH66" t="n">
+      <c r="EL66" t="n">
         <v>8</v>
       </c>
-      <c r="EI66" t="inlineStr">
+      <c r="EM66" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ66" t="inlineStr">
+      <c r="EN66" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO66" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP66" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ66" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER66" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -49143,7 +51411,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
+          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -49361,7 +51629,7 @@
       </c>
       <c r="BC67" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD67" t="inlineStr">
@@ -49725,38 +51993,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC67" t="n">
+      <c r="EC67" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED67" t="n">
         <v>103.30514</v>
       </c>
-      <c r="ED67" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE67" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF67" t="n">
+        <v>22.401411</v>
+      </c>
+      <c r="EG67" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH67" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI67" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF67" t="inlineStr">
+      <c r="EJ67" t="inlineStr">
         <is>
           <t>DBO4-5</t>
         </is>
       </c>
-      <c r="EG67" t="n">
+      <c r="EK67" t="n">
         <v>52</v>
       </c>
-      <c r="EH67" t="n">
+      <c r="EL67" t="n">
         <v>8</v>
       </c>
-      <c r="EI67" t="inlineStr">
+      <c r="EM67" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ67" t="inlineStr">
+      <c r="EN67" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO67" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP67" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ67" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER67" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -49801,7 +52105,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
+          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -50019,7 +52323,7 @@
       </c>
       <c r="BC68" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD68" t="inlineStr">
@@ -50383,38 +52687,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC68" t="n">
+      <c r="EC68" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED68" t="n">
         <v>91.19717</v>
       </c>
-      <c r="ED68" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE68" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF68" t="n">
+        <v>26.544249</v>
+      </c>
+      <c r="EG68" t="n">
+        <v>0.23929</v>
+      </c>
+      <c r="EH68" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI68" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF68" t="inlineStr">
+      <c r="EJ68" t="inlineStr">
         <is>
           <t>DBO4-5</t>
         </is>
       </c>
-      <c r="EG68" t="n">
+      <c r="EK68" t="n">
         <v>52</v>
       </c>
-      <c r="EH68" t="n">
+      <c r="EL68" t="n">
         <v>2</v>
       </c>
-      <c r="EI68" t="inlineStr">
+      <c r="EM68" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ68" t="inlineStr">
+      <c r="EN68" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO68" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP68" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ68" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER68" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -50459,7 +52797,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
+          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -50677,7 +53015,7 @@
       </c>
       <c r="BC69" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD69" t="inlineStr">
@@ -51041,38 +53379,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC69" t="n">
+      <c r="EC69" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED69" t="n">
         <v>91.19717</v>
       </c>
-      <c r="ED69" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE69" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF69" t="n">
+        <v>26.544249</v>
+      </c>
+      <c r="EG69" t="n">
+        <v>0.23929</v>
+      </c>
+      <c r="EH69" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI69" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF69" t="inlineStr">
+      <c r="EJ69" t="inlineStr">
         <is>
           <t>DBO4-5</t>
         </is>
       </c>
-      <c r="EG69" t="n">
+      <c r="EK69" t="n">
         <v>52</v>
       </c>
-      <c r="EH69" t="n">
+      <c r="EL69" t="n">
         <v>2</v>
       </c>
-      <c r="EI69" t="inlineStr">
+      <c r="EM69" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ69" t="inlineStr">
+      <c r="EN69" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO69" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP69" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ69" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER69" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -51335,7 +53707,7 @@
       </c>
       <c r="BC70" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD70" t="inlineStr">
@@ -51699,38 +54071,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC70" t="n">
+      <c r="EC70" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED70" t="n">
         <v>103.37104</v>
       </c>
-      <c r="ED70" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE70" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF70" t="n">
+        <v>22.348629</v>
+      </c>
+      <c r="EG70" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH70" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI70" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF70" t="inlineStr">
+      <c r="EJ70" t="inlineStr">
         <is>
           <t>DBO4-3</t>
         </is>
       </c>
-      <c r="EG70" t="n">
+      <c r="EK70" t="n">
         <v>54</v>
       </c>
-      <c r="EH70" t="n">
+      <c r="EL70" t="n">
         <v>8</v>
       </c>
-      <c r="EI70" t="inlineStr">
+      <c r="EM70" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ70" t="inlineStr">
+      <c r="EN70" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO70" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP70" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ70" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER70" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -51993,7 +54401,7 @@
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
@@ -52357,38 +54765,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC71" t="n">
+      <c r="EC71" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED71" t="n">
         <v>103.37104</v>
       </c>
-      <c r="ED71" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE71" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF71" t="n">
+        <v>22.348629</v>
+      </c>
+      <c r="EG71" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH71" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI71" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF71" t="inlineStr">
+      <c r="EJ71" t="inlineStr">
         <is>
           <t>DBO4-3</t>
         </is>
       </c>
-      <c r="EG71" t="n">
+      <c r="EK71" t="n">
         <v>54</v>
       </c>
-      <c r="EH71" t="n">
+      <c r="EL71" t="n">
         <v>8</v>
       </c>
-      <c r="EI71" t="inlineStr">
+      <c r="EM71" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ71" t="inlineStr">
+      <c r="EN71" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO71" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP71" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ71" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER71" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -52433,7 +54877,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -52651,7 +55095,7 @@
       </c>
       <c r="BC72" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD72" t="inlineStr">
@@ -53010,35 +55454,67 @@
         <v>2.285</v>
       </c>
       <c r="EC72" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="ED72" t="n">
         <v>72.53903</v>
       </c>
-      <c r="ED72" t="n">
+      <c r="EE72" t="n">
         <v>2.35</v>
       </c>
-      <c r="EE72" t="inlineStr">
+      <c r="EF72" t="n">
+        <v>26.711111</v>
+      </c>
+      <c r="EG72" t="n">
+        <v>0.27015</v>
+      </c>
+      <c r="EH72" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI72" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF72" t="inlineStr">
+      <c r="EJ72" t="inlineStr">
         <is>
           <t>DBO4-3</t>
         </is>
       </c>
-      <c r="EG72" t="n">
+      <c r="EK72" t="n">
         <v>54</v>
       </c>
-      <c r="EH72" t="n">
+      <c r="EL72" t="n">
         <v>2</v>
       </c>
-      <c r="EI72" t="inlineStr">
+      <c r="EM72" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ72" t="inlineStr">
+      <c r="EN72" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO72" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP72" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ72" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER72" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -53083,7 +55559,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -53301,7 +55777,7 @@
       </c>
       <c r="BC73" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD73" t="inlineStr">
@@ -53660,35 +56136,67 @@
         <v>2.285</v>
       </c>
       <c r="EC73" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="ED73" t="n">
         <v>72.53903</v>
       </c>
-      <c r="ED73" t="n">
+      <c r="EE73" t="n">
         <v>2.35</v>
       </c>
-      <c r="EE73" t="inlineStr">
+      <c r="EF73" t="n">
+        <v>26.711111</v>
+      </c>
+      <c r="EG73" t="n">
+        <v>0.27015</v>
+      </c>
+      <c r="EH73" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI73" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF73" t="inlineStr">
+      <c r="EJ73" t="inlineStr">
         <is>
           <t>DBO4-3</t>
         </is>
       </c>
-      <c r="EG73" t="n">
+      <c r="EK73" t="n">
         <v>54</v>
       </c>
-      <c r="EH73" t="n">
+      <c r="EL73" t="n">
         <v>2</v>
       </c>
-      <c r="EI73" t="inlineStr">
+      <c r="EM73" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ73" t="inlineStr">
+      <c r="EN73" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO73" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP73" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ73" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER73" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -53733,7 +56241,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
+          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -53951,7 +56459,7 @@
       </c>
       <c r="BC74" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD74" t="inlineStr">
@@ -54315,38 +56823,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC74" t="n">
+      <c r="EC74" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED74" t="n">
         <v>103.34088</v>
       </c>
-      <c r="ED74" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE74" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF74" t="n">
+        <v>22.649042</v>
+      </c>
+      <c r="EG74" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH74" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI74" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF74" t="inlineStr">
+      <c r="EJ74" t="inlineStr">
         <is>
           <t>DBO4-1</t>
         </is>
       </c>
-      <c r="EG74" t="n">
+      <c r="EK74" t="n">
         <v>56</v>
       </c>
-      <c r="EH74" t="n">
+      <c r="EL74" t="n">
         <v>8</v>
       </c>
-      <c r="EI74" t="inlineStr">
+      <c r="EM74" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ74" t="inlineStr">
+      <c r="EN74" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO74" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP74" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ74" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER74" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -54391,7 +56935,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
+          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -54609,7 +57153,7 @@
       </c>
       <c r="BC75" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD75" t="inlineStr">
@@ -54973,38 +57517,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC75" t="n">
+      <c r="EC75" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED75" t="n">
         <v>103.34088</v>
       </c>
-      <c r="ED75" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE75" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF75" t="n">
+        <v>22.649042</v>
+      </c>
+      <c r="EG75" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH75" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI75" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF75" t="inlineStr">
+      <c r="EJ75" t="inlineStr">
         <is>
           <t>DBO4-1</t>
         </is>
       </c>
-      <c r="EG75" t="n">
+      <c r="EK75" t="n">
         <v>56</v>
       </c>
-      <c r="EH75" t="n">
+      <c r="EL75" t="n">
         <v>8</v>
       </c>
-      <c r="EI75" t="inlineStr">
+      <c r="EM75" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ75" t="inlineStr">
+      <c r="EN75" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO75" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP75" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ75" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER75" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -55049,7 +57629,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
+          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -55267,7 +57847,7 @@
       </c>
       <c r="BC76" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD76" t="inlineStr">
@@ -55626,35 +58206,67 @@
         <v>2.356</v>
       </c>
       <c r="EC76" t="n">
+        <v>37</v>
+      </c>
+      <c r="ED76" t="n">
         <v>71.63606</v>
       </c>
-      <c r="ED76" t="n">
+      <c r="EE76" t="n">
         <v>3.04</v>
       </c>
-      <c r="EE76" t="inlineStr">
+      <c r="EF76" t="n">
+        <v>26.708582</v>
+      </c>
+      <c r="EG76" t="n">
+        <v>0.22971</v>
+      </c>
+      <c r="EH76" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI76" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF76" t="inlineStr">
+      <c r="EJ76" t="inlineStr">
         <is>
           <t>DBO4-1</t>
         </is>
       </c>
-      <c r="EG76" t="n">
+      <c r="EK76" t="n">
         <v>56</v>
       </c>
-      <c r="EH76" t="n">
+      <c r="EL76" t="n">
         <v>2</v>
       </c>
-      <c r="EI76" t="inlineStr">
+      <c r="EM76" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ76" t="inlineStr">
+      <c r="EN76" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO76" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP76" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ76" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER76" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -55699,7 +58311,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
+          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -55917,7 +58529,7 @@
       </c>
       <c r="BC77" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD77" t="inlineStr">
@@ -56276,35 +58888,67 @@
         <v>2.356</v>
       </c>
       <c r="EC77" t="n">
+        <v>37</v>
+      </c>
+      <c r="ED77" t="n">
         <v>71.63606</v>
       </c>
-      <c r="ED77" t="n">
+      <c r="EE77" t="n">
         <v>3.04</v>
       </c>
-      <c r="EE77" t="inlineStr">
+      <c r="EF77" t="n">
+        <v>26.708582</v>
+      </c>
+      <c r="EG77" t="n">
+        <v>0.22971</v>
+      </c>
+      <c r="EH77" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI77" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF77" t="inlineStr">
+      <c r="EJ77" t="inlineStr">
         <is>
           <t>DBO4-1</t>
         </is>
       </c>
-      <c r="EG77" t="n">
+      <c r="EK77" t="n">
         <v>56</v>
       </c>
-      <c r="EH77" t="n">
+      <c r="EL77" t="n">
         <v>2</v>
       </c>
-      <c r="EI77" t="inlineStr">
+      <c r="EM77" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ77" t="inlineStr">
+      <c r="EN77" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO77" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP77" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ77" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER77" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -56349,7 +58993,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
+          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -56567,7 +59211,7 @@
       </c>
       <c r="BC78" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD78" t="inlineStr">
@@ -56931,38 +59575,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC78" t="n">
+      <c r="EC78" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED78" t="n">
         <v>103.849396</v>
       </c>
-      <c r="ED78" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE78" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF78" t="n">
+        <v>24.564848</v>
+      </c>
+      <c r="EG78" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH78" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI78" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF78" t="inlineStr">
+      <c r="EJ78" t="inlineStr">
         <is>
           <t>DBO5-1</t>
         </is>
       </c>
-      <c r="EG78" t="n">
+      <c r="EK78" t="n">
         <v>58</v>
       </c>
-      <c r="EH78" t="n">
+      <c r="EL78" t="n">
         <v>7</v>
       </c>
-      <c r="EI78" t="inlineStr">
+      <c r="EM78" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ78" t="inlineStr">
+      <c r="EN78" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO78" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP78" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ78" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER78" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -57007,7 +59687,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
+          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -57225,7 +59905,7 @@
       </c>
       <c r="BC79" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD79" t="inlineStr">
@@ -57589,38 +60269,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC79" t="n">
+      <c r="EC79" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED79" t="n">
         <v>103.849396</v>
       </c>
-      <c r="ED79" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE79" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF79" t="n">
+        <v>24.564848</v>
+      </c>
+      <c r="EG79" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH79" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI79" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF79" t="inlineStr">
+      <c r="EJ79" t="inlineStr">
         <is>
           <t>DBO5-1</t>
         </is>
       </c>
-      <c r="EG79" t="n">
+      <c r="EK79" t="n">
         <v>58</v>
       </c>
-      <c r="EH79" t="n">
+      <c r="EL79" t="n">
         <v>7</v>
       </c>
-      <c r="EI79" t="inlineStr">
+      <c r="EM79" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ79" t="inlineStr">
+      <c r="EN79" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO79" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP79" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ79" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER79" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -57665,7 +60381,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
+          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -57883,7 +60599,7 @@
       </c>
       <c r="BC80" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD80" t="inlineStr">
@@ -58242,35 +60958,67 @@
         <v>1.202</v>
       </c>
       <c r="EC80" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="ED80" t="n">
         <v>101.96729</v>
       </c>
-      <c r="ED80" t="n">
+      <c r="EE80" t="n">
         <v>0.96</v>
       </c>
-      <c r="EE80" t="inlineStr">
+      <c r="EF80" t="n">
+        <v>25.654007</v>
+      </c>
+      <c r="EG80" t="n">
+        <v>0.20168</v>
+      </c>
+      <c r="EH80" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI80" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF80" t="inlineStr">
+      <c r="EJ80" t="inlineStr">
         <is>
           <t>DBO5-1</t>
         </is>
       </c>
-      <c r="EG80" t="n">
+      <c r="EK80" t="n">
         <v>58</v>
       </c>
-      <c r="EH80" t="n">
+      <c r="EL80" t="n">
         <v>1</v>
       </c>
-      <c r="EI80" t="inlineStr">
+      <c r="EM80" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ80" t="inlineStr">
+      <c r="EN80" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO80" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP80" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ80" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER80" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -58315,7 +61063,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
+          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -58533,7 +61281,7 @@
       </c>
       <c r="BC81" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD81" t="inlineStr">
@@ -58892,35 +61640,67 @@
         <v>1.202</v>
       </c>
       <c r="EC81" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="ED81" t="n">
         <v>101.96729</v>
       </c>
-      <c r="ED81" t="n">
+      <c r="EE81" t="n">
         <v>0.96</v>
       </c>
-      <c r="EE81" t="inlineStr">
+      <c r="EF81" t="n">
+        <v>25.654007</v>
+      </c>
+      <c r="EG81" t="n">
+        <v>0.20168</v>
+      </c>
+      <c r="EH81" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EI81" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF81" t="inlineStr">
+      <c r="EJ81" t="inlineStr">
         <is>
           <t>DBO5-1</t>
         </is>
       </c>
-      <c r="EG81" t="n">
+      <c r="EK81" t="n">
         <v>58</v>
       </c>
-      <c r="EH81" t="n">
+      <c r="EL81" t="n">
         <v>1</v>
       </c>
-      <c r="EI81" t="inlineStr">
+      <c r="EM81" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ81" t="inlineStr">
+      <c r="EN81" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO81" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP81" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ81" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER81" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -59183,7 +61963,7 @@
       </c>
       <c r="BC82" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD82" t="inlineStr">
@@ -59547,38 +62327,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC82" t="n">
+      <c r="EC82" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED82" t="n">
         <v>104.11437</v>
       </c>
-      <c r="ED82" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE82" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF82" t="n">
+        <v>23.518148</v>
+      </c>
+      <c r="EG82" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH82" t="n">
+        <v>1020</v>
+      </c>
+      <c r="EI82" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF82" t="inlineStr">
+      <c r="EJ82" t="inlineStr">
         <is>
           <t>DBO5-5</t>
         </is>
       </c>
-      <c r="EG82" t="n">
+      <c r="EK82" t="n">
         <v>60</v>
       </c>
-      <c r="EH82" t="n">
+      <c r="EL82" t="n">
         <v>10</v>
       </c>
-      <c r="EI82" t="inlineStr">
+      <c r="EM82" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ82" t="inlineStr">
+      <c r="EN82" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO82" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP82" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ82" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER82" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -59841,7 +62657,7 @@
       </c>
       <c r="BC83" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD83" t="inlineStr">
@@ -60205,38 +63021,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC83" t="n">
+      <c r="EC83" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED83" t="n">
         <v>104.11437</v>
       </c>
-      <c r="ED83" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE83" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF83" t="n">
+        <v>23.518148</v>
+      </c>
+      <c r="EG83" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="EI83" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF83" t="inlineStr">
+      <c r="EJ83" t="inlineStr">
         <is>
           <t>DBO5-5</t>
         </is>
       </c>
-      <c r="EG83" t="n">
+      <c r="EK83" t="n">
         <v>60</v>
       </c>
-      <c r="EH83" t="n">
+      <c r="EL83" t="n">
         <v>10</v>
       </c>
-      <c r="EI83" t="inlineStr">
+      <c r="EM83" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ83" t="inlineStr">
+      <c r="EN83" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO83" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP83" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ83" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER83" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -60281,7 +63133,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
+          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -60499,7 +63351,7 @@
       </c>
       <c r="BC84" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD84" t="inlineStr">
@@ -60863,38 +63715,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC84" t="n">
+      <c r="EC84" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED84" t="n">
         <v>89.03737</v>
       </c>
-      <c r="ED84" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE84" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF84" t="n">
+        <v>26.609121</v>
+      </c>
+      <c r="EG84" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH84" t="n">
+        <v>1020</v>
+      </c>
+      <c r="EI84" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF84" t="inlineStr">
+      <c r="EJ84" t="inlineStr">
         <is>
           <t>DBO5-5</t>
         </is>
       </c>
-      <c r="EG84" t="n">
+      <c r="EK84" t="n">
         <v>60</v>
       </c>
-      <c r="EH84" t="n">
+      <c r="EL84" t="n">
         <v>2</v>
       </c>
-      <c r="EI84" t="inlineStr">
+      <c r="EM84" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ84" t="inlineStr">
+      <c r="EN84" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO84" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP84" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ84" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER84" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -60939,7 +63825,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
+          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -61157,7 +64043,7 @@
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
@@ -61521,38 +64407,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC85" t="n">
+      <c r="EC85" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED85" t="n">
         <v>89.03737</v>
       </c>
-      <c r="ED85" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE85" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF85" t="n">
+        <v>26.609121</v>
+      </c>
+      <c r="EG85" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="EH85" t="n">
+        <v>1020</v>
+      </c>
+      <c r="EI85" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF85" t="inlineStr">
+      <c r="EJ85" t="inlineStr">
         <is>
           <t>DBO5-5</t>
         </is>
       </c>
-      <c r="EG85" t="n">
+      <c r="EK85" t="n">
         <v>60</v>
       </c>
-      <c r="EH85" t="n">
+      <c r="EL85" t="n">
         <v>2</v>
       </c>
-      <c r="EI85" t="inlineStr">
+      <c r="EM85" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ85" t="inlineStr">
+      <c r="EN85" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO85" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP85" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ85" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER85" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -61815,7 +64735,7 @@
       </c>
       <c r="BC86" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD86" t="inlineStr">
@@ -62179,38 +65099,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC86" t="n">
+      <c r="EC86" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED86" t="n">
         <v>103.35117</v>
       </c>
-      <c r="ED86" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE86" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF86" t="n">
+        <v>23.463541</v>
+      </c>
+      <c r="EG86" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH86" t="n">
+        <v>1021</v>
+      </c>
+      <c r="EI86" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF86" t="inlineStr">
+      <c r="EJ86" t="inlineStr">
         <is>
           <t>DBO5-9</t>
         </is>
       </c>
-      <c r="EG86" t="n">
+      <c r="EK86" t="n">
         <v>62</v>
       </c>
-      <c r="EH86" t="n">
+      <c r="EL86" t="n">
         <v>8</v>
       </c>
-      <c r="EI86" t="inlineStr">
+      <c r="EM86" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ86" t="inlineStr">
+      <c r="EN86" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO86" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP86" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ86" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER86" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -62473,7 +65429,7 @@
       </c>
       <c r="BC87" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD87" t="inlineStr">
@@ -62837,38 +65793,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC87" t="n">
+      <c r="EC87" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED87" t="n">
         <v>103.35117</v>
       </c>
-      <c r="ED87" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE87" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF87" t="n">
+        <v>23.463541</v>
+      </c>
+      <c r="EG87" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH87" t="n">
+        <v>1021</v>
+      </c>
+      <c r="EI87" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF87" t="inlineStr">
+      <c r="EJ87" t="inlineStr">
         <is>
           <t>DBO5-9</t>
         </is>
       </c>
-      <c r="EG87" t="n">
+      <c r="EK87" t="n">
         <v>62</v>
       </c>
-      <c r="EH87" t="n">
+      <c r="EL87" t="n">
         <v>8</v>
       </c>
-      <c r="EI87" t="inlineStr">
+      <c r="EM87" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ87" t="inlineStr">
+      <c r="EN87" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO87" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP87" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ87" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER87" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -63131,7 +66123,7 @@
       </c>
       <c r="BC88" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD88" t="inlineStr">
@@ -63495,38 +66487,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC88" t="n">
+      <c r="EC88" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED88" t="n">
         <v>75.88112</v>
       </c>
-      <c r="ED88" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE88" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF88" t="n">
+        <v>26.649298</v>
+      </c>
+      <c r="EG88" t="n">
+        <v>0.20259</v>
+      </c>
+      <c r="EH88" t="n">
+        <v>1021</v>
+      </c>
+      <c r="EI88" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF88" t="inlineStr">
+      <c r="EJ88" t="inlineStr">
         <is>
           <t>DBO5-9</t>
         </is>
       </c>
-      <c r="EG88" t="n">
+      <c r="EK88" t="n">
         <v>62</v>
       </c>
-      <c r="EH88" t="n">
+      <c r="EL88" t="n">
         <v>2</v>
       </c>
-      <c r="EI88" t="inlineStr">
+      <c r="EM88" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ88" t="inlineStr">
+      <c r="EN88" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO88" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP88" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ88" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER88" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -63789,7 +66815,7 @@
       </c>
       <c r="BC89" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD89" t="inlineStr">
@@ -64153,38 +67179,72 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC89" t="n">
+      <c r="EC89" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED89" t="n">
         <v>75.88112</v>
       </c>
-      <c r="ED89" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE89" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF89" t="n">
+        <v>26.649298</v>
+      </c>
+      <c r="EG89" t="n">
+        <v>0.20259</v>
+      </c>
+      <c r="EH89" t="n">
+        <v>1021</v>
+      </c>
+      <c r="EI89" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF89" t="inlineStr">
+      <c r="EJ89" t="inlineStr">
         <is>
           <t>DBO5-9</t>
         </is>
       </c>
-      <c r="EG89" t="n">
+      <c r="EK89" t="n">
         <v>62</v>
       </c>
-      <c r="EH89" t="n">
+      <c r="EL89" t="n">
         <v>2</v>
       </c>
-      <c r="EI89" t="inlineStr">
+      <c r="EM89" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ89" t="inlineStr">
+      <c r="EN89" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO89" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP89" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ89" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER89" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -64447,7 +67507,7 @@
       </c>
       <c r="BC90" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD90" t="inlineStr">
@@ -64811,38 +67871,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC90" t="n">
+      <c r="EC90" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED90" t="n">
         <v>100.904175</v>
       </c>
-      <c r="ED90" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE90" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF90" t="n">
+        <v>23.890244</v>
+      </c>
+      <c r="EG90" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH90" t="n">
+        <v>991</v>
+      </c>
+      <c r="EI90" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF90" t="inlineStr">
+      <c r="EJ90" t="inlineStr">
         <is>
           <t>BS14</t>
         </is>
       </c>
-      <c r="EG90" t="n">
+      <c r="EK90" t="n">
         <v>65</v>
       </c>
-      <c r="EH90" t="n">
+      <c r="EL90" t="n">
         <v>8</v>
       </c>
-      <c r="EI90" t="inlineStr">
+      <c r="EM90" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ90" t="inlineStr">
+      <c r="EN90" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO90" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP90" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ90" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER90" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -65105,7 +68201,7 @@
       </c>
       <c r="BC91" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD91" t="inlineStr">
@@ -65469,38 +68565,74 @@
           <t>missing: not collected</t>
         </is>
       </c>
-      <c r="EC91" t="n">
+      <c r="EC91" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="ED91" t="n">
         <v>100.904175</v>
       </c>
-      <c r="ED91" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
       <c r="EE91" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF91" t="n">
+        <v>23.890244</v>
+      </c>
+      <c r="EG91" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH91" t="n">
+        <v>991</v>
+      </c>
+      <c r="EI91" t="inlineStr">
+        <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF91" t="inlineStr">
+      <c r="EJ91" t="inlineStr">
         <is>
           <t>BS14</t>
         </is>
       </c>
-      <c r="EG91" t="n">
+      <c r="EK91" t="n">
         <v>65</v>
       </c>
-      <c r="EH91" t="n">
+      <c r="EL91" t="n">
         <v>8</v>
       </c>
-      <c r="EI91" t="inlineStr">
+      <c r="EM91" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ91" t="inlineStr">
+      <c r="EN91" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO91" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP91" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ91" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER91" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -65763,7 +68895,7 @@
       </c>
       <c r="BC92" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD92" t="inlineStr">
@@ -66122,35 +69254,67 @@
         <v>1.33</v>
       </c>
       <c r="EC92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="ED92" t="n">
         <v>93.40581</v>
       </c>
-      <c r="ED92" t="n">
+      <c r="EE92" t="n">
         <v>2.93</v>
       </c>
-      <c r="EE92" t="inlineStr">
+      <c r="EF92" t="n">
+        <v>25.668623</v>
+      </c>
+      <c r="EG92" t="n">
+        <v>0.20182</v>
+      </c>
+      <c r="EH92" t="n">
+        <v>991</v>
+      </c>
+      <c r="EI92" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF92" t="inlineStr">
+      <c r="EJ92" t="inlineStr">
         <is>
           <t>BS14</t>
         </is>
       </c>
-      <c r="EG92" t="n">
+      <c r="EK92" t="n">
         <v>65</v>
       </c>
-      <c r="EH92" t="n">
+      <c r="EL92" t="n">
         <v>1</v>
       </c>
-      <c r="EI92" t="inlineStr">
+      <c r="EM92" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ92" t="inlineStr">
+      <c r="EN92" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO92" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP92" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ92" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER92" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -66413,7 +69577,7 @@
       </c>
       <c r="BC93" t="inlineStr">
         <is>
-          <t>2021-01-28T00:00:00Z</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD93" t="inlineStr">
@@ -66772,35 +69936,67 @@
         <v>1.33</v>
       </c>
       <c r="EC93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="ED93" t="n">
         <v>93.40581</v>
       </c>
-      <c r="ED93" t="n">
+      <c r="EE93" t="n">
         <v>2.93</v>
       </c>
-      <c r="EE93" t="inlineStr">
+      <c r="EF93" t="n">
+        <v>25.668623</v>
+      </c>
+      <c r="EG93" t="n">
+        <v>0.20182</v>
+      </c>
+      <c r="EH93" t="n">
+        <v>991</v>
+      </c>
+      <c r="EI93" t="inlineStr">
         <is>
           <t>DY20-12 Dyson 2020</t>
         </is>
       </c>
-      <c r="EF93" t="inlineStr">
+      <c r="EJ93" t="inlineStr">
         <is>
           <t>BS14</t>
         </is>
       </c>
-      <c r="EG93" t="n">
+      <c r="EK93" t="n">
         <v>65</v>
       </c>
-      <c r="EH93" t="n">
+      <c r="EL93" t="n">
         <v>1</v>
       </c>
-      <c r="EI93" t="inlineStr">
+      <c r="EM93" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EJ93" t="inlineStr">
+      <c r="EN93" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EO93" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EP93" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EQ93" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="ER93" t="inlineStr">
+        <is>
+          <t>mb</t>
         </is>
       </c>
     </row>
@@ -67499,6 +70695,46 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EK94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EL94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68195,6 +71431,46 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EK95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EL95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER95" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68891,6 +72167,46 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EK96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EL96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER96" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69583,6 +72899,46 @@
         </is>
       </c>
       <c r="EJ97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EK97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EL97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ97" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER97" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
+          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
+          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>E32.1B.DY2012 | E32.2B.DY2012</t>
+          <t>E32.2B.DY2012 | E32.1B.DY2012</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -17535,7 +17535,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>E32.1B.DY2012 | E32.2B.DY2012</t>
+          <t>E32.2B.DY2012 | E32.1B.DY2012</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
+          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>E33.2B.DY2012 | E33.1B.DY2012</t>
+          <t>E33.1B.DY2012 | E33.2B.DY2012</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -19615,7 +19615,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>E34.2B.DY2012 | E34.1B.DY2012</t>
+          <t>E34.1B.DY2012 | E34.2B.DY2012</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>E34.2B.DY2012 | E34.1B.DY2012</t>
+          <t>E34.1B.DY2012 | E34.2B.DY2012</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
+          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
+          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
+          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -23079,7 +23079,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
+          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
+          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
+          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
+          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -30009,7 +30009,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
+          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
+          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
+          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
+          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
+          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -35533,7 +35533,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>E47.2B.DY2012 | E47.1B.DY2012</t>
+          <t>E47.1B.DY2012 | E47.2B.DY2012</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -36215,7 +36215,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>E47.2B.DY2012 | E47.1B.DY2012</t>
+          <t>E47.1B.DY2012 | E47.2B.DY2012</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -38977,7 +38977,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -45193,7 +45193,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>E54.2B.DY2012 | E54.1B.DY2012</t>
+          <t>E54.1B.DY2012 | E54.2B.DY2012</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>E54.2B.DY2012 | E54.1B.DY2012</t>
+          <t>E54.1B.DY2012 | E54.2B.DY2012</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -46581,7 +46581,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
+          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -47273,7 +47273,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
+          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
+          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -50035,7 +50035,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
+          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -50717,7 +50717,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
+          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -51411,7 +51411,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
+          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -54877,7 +54877,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
+          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -55559,7 +55559,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
+          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -57629,7 +57629,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -58311,7 +58311,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -58993,7 +58993,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
+          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -59687,7 +59687,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
+          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -63133,7 +63133,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
+          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -63825,7 +63825,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
+          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -64517,7 +64517,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
+          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -65211,7 +65211,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
+          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -68677,7 +68677,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
+          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -69359,7 +69359,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
+          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
         </is>
       </c>
       <c r="J93" t="n">

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -11299,7 +11299,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
+          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
+          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>E29.2B.DY2012 | E29.1B.DY2012</t>
+          <t>E29.1B.DY2012 | E29.2B.DY2012</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>E29.2B.DY2012 | E29.1B.DY2012</t>
+          <t>E29.1B.DY2012 | E29.2B.DY2012</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -26543,7 +26543,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
+          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
+          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -27927,7 +27927,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
+          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -28621,7 +28621,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
+          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
+          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -30009,7 +30009,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
+          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -30703,7 +30703,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>E43.1B.DY2012 | E43.2B.DY2012</t>
+          <t>E43.2B.DY2012 | E43.1B.DY2012</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -31385,7 +31385,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>E43.1B.DY2012 | E43.2B.DY2012</t>
+          <t>E43.2B.DY2012 | E43.1B.DY2012</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
+          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
+          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -42441,7 +42441,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -43135,7 +43135,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -43829,7 +43829,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>E53.1B.DY2012 | E53.2B.DY2012</t>
+          <t>E53.2B.DY2012 | E53.1B.DY2012</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -44511,7 +44511,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>E53.1B.DY2012 | E53.2B.DY2012</t>
+          <t>E53.2B.DY2012 | E53.1B.DY2012</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -46581,7 +46581,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
+          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -47273,7 +47273,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
+          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -47965,7 +47965,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>E57.2B.DY2012 | E57.1B.DY2012</t>
+          <t>E57.1B.DY2012 | E57.2B.DY2012</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -48659,7 +48659,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>E57.2B.DY2012 | E57.1B.DY2012</t>
+          <t>E57.1B.DY2012 | E57.2B.DY2012</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
+          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -50035,7 +50035,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
+          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -54877,7 +54877,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -55559,7 +55559,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -56241,7 +56241,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
+          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -56935,7 +56935,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
+          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -57629,7 +57629,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
+          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -58311,7 +58311,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
+          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -58993,7 +58993,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
+          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -59687,7 +59687,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
+          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -60381,7 +60381,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -61063,7 +61063,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -61745,7 +61745,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
+          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -62439,7 +62439,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
+          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -63133,7 +63133,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
+          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -63825,7 +63825,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>E68.1B.DY2012 | E68.2B.DY2012</t>
+          <t>E68.2B.DY2012 | E68.1B.DY2012</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -65905,7 +65905,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
+          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -66597,7 +66597,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
+          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -67289,7 +67289,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -67983,7 +67983,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -68677,7 +68677,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
+          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -69359,7 +69359,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
+          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -70271,7 +70271,7 @@
       </c>
       <c r="BC94" t="inlineStr">
         <is>
-          <t>not applicable: control sample</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="BD94" t="inlineStr">
@@ -71007,7 +71007,7 @@
       </c>
       <c r="BC95" t="inlineStr">
         <is>
-          <t>not applicable: control sample</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="BD95" t="inlineStr">
@@ -71570,7 +71570,7 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -71743,7 +71743,7 @@
       </c>
       <c r="BC96" t="inlineStr">
         <is>
-          <t>not applicable: control sample</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD96" t="inlineStr">
@@ -72479,7 +72479,7 @@
       </c>
       <c r="BC97" t="inlineStr">
         <is>
-          <t>not applicable: control sample</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="BD97" t="inlineStr">

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -5959,7 +5959,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
+          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
+          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>E27.2B.DY2012 | E27.1B.DY2012</t>
+          <t>E27.1B.DY2012 | E27.2B.DY2012</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>E27.2B.DY2012 | E27.1B.DY2012</t>
+          <t>E27.1B.DY2012 | E27.2B.DY2012</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
+          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>E28.2B.DY2012 | E28.1B.DY2012</t>
+          <t>E28.1B.DY2012 | E28.2B.DY2012</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
+          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>E30.1B.DY2012 | E30.2B.DY2012</t>
+          <t>E30.2B.DY2012 | E30.1B.DY2012</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -22543,7 +22543,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -23233,7 +23233,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
+          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -25303,7 +25303,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -26687,7 +26687,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
+          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
+          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -30123,7 +30123,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
+          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -30813,7 +30813,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
+          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -31503,7 +31503,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -32195,7 +32195,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -36321,7 +36321,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -38395,7 +38395,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -39085,7 +39085,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -39775,7 +39775,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -43903,7 +43903,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
+          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -44593,7 +44593,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
+          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -50791,7 +50791,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>E61.1B.DY2012 | E61.2B.DY2012</t>
+          <t>E61.2B.DY2012 | E61.1B.DY2012</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -51483,7 +51483,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>E61.1B.DY2012 | E61.2B.DY2012</t>
+          <t>E61.2B.DY2012 | E61.1B.DY2012</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -53535,7 +53535,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
+          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -54227,7 +54227,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
+          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -56279,7 +56279,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
+          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -56971,7 +56971,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>E65.1B.DY2012 | E65.2B.DY2012</t>
+          <t>E65.2B.DY2012 | E65.1B.DY2012</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -59023,7 +59023,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
+          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -59715,7 +59715,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>E67.2B.DY2012 | E67.1B.DY2012</t>
+          <t>E67.1B.DY2012 | E67.2B.DY2012</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -63171,7 +63171,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
+          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -63861,7 +63861,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
+          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -64551,7 +64551,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -65243,7 +65243,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J91" t="n">

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -5262,8 +5262,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
@@ -5954,12 +5956,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
+          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -6644,12 +6648,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>E26.1B.DY2012 | E26.2B.DY2012</t>
+          <t>E26.2B.DY2012 | E26.1B.DY2012</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -7334,8 +7340,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -8026,8 +8034,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8718,8 +8728,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -9408,8 +9420,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -10098,8 +10112,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10790,8 +10806,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -11482,8 +11500,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -12172,8 +12192,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -12862,8 +12884,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -13554,8 +13578,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -14246,12 +14272,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>E32.2B.DY2012 | E32.1B.DY2012</t>
+          <t>E32.1B.DY2012 | E32.2B.DY2012</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -14936,12 +14964,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>E32.2B.DY2012 | E32.1B.DY2012</t>
+          <t>E32.1B.DY2012 | E32.2B.DY2012</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -15626,8 +15656,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -16318,8 +16350,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -17010,12 +17044,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>E34.2B.DY2012 | E34.1B.DY2012</t>
+          <t>E34.1B.DY2012 | E34.2B.DY2012</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -17700,12 +17736,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>E34.2B.DY2012 | E34.1B.DY2012</t>
+          <t>E34.1B.DY2012 | E34.2B.DY2012</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -18390,12 +18428,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
+          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -19082,12 +19122,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
+          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -19774,12 +19816,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
+          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -20464,12 +20508,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
+          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -21154,12 +21200,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>E37.1B.DY2012 | E37.2B.DY2012</t>
+          <t>E37.2B.DY2012 | E37.1B.DY2012</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -21846,12 +21894,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>E37.1B.DY2012 | E37.2B.DY2012</t>
+          <t>E37.2B.DY2012 | E37.1B.DY2012</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -22538,12 +22588,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
+          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -23228,12 +23280,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>E38.1B.DY2012 | E38.2B.DY2012</t>
+          <t>E38.2B.DY2012 | E38.1B.DY2012</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -23918,12 +23972,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
+          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -24608,12 +24664,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>E39.1B.DY2012 | E39.2B.DY2012</t>
+          <t>E39.2B.DY2012 | E39.1B.DY2012</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -25298,12 +25356,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
+          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -25990,12 +26050,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
+          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -26682,8 +26744,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -27374,8 +27438,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -28066,8 +28132,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -28746,8 +28814,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -29426,8 +29496,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -30118,12 +30190,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
+          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -30808,12 +30882,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>E45.1B.DY2012 | E45.2B.DY2012</t>
+          <t>E45.2B.DY2012 | E45.1B.DY2012</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -31498,12 +31574,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
+          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -32190,12 +32268,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
+          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -32882,8 +32962,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -33562,8 +33644,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -34242,12 +34326,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
+          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -34934,12 +35020,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
+          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -35626,12 +35714,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
+          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -36316,12 +36406,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
+          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -37006,12 +37098,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>E50.1B.DY2012 | E50.2B.DY2012</t>
+          <t>E50.2B.DY2012 | E50.1B.DY2012</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -37698,12 +37792,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>E50.1B.DY2012 | E50.2B.DY2012</t>
+          <t>E50.2B.DY2012 | E50.1B.DY2012</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -38390,12 +38486,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
+          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -39080,12 +39178,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
+          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -39770,12 +39870,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
+          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -40462,12 +40564,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
+          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -41154,12 +41258,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>E53.1B.DY2012 | E53.2B.DY2012</t>
+          <t>E53.2B.DY2012 | E53.1B.DY2012</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -41834,12 +41940,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>E53.1B.DY2012 | E53.2B.DY2012</t>
+          <t>E53.2B.DY2012 | E53.1B.DY2012</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -42514,8 +42622,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -43206,8 +43316,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -43898,8 +44010,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -44588,8 +44702,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -45278,8 +45394,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -45970,8 +46088,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -46662,8 +46782,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -47342,8 +47464,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -48022,12 +48146,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
+          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -48714,12 +48840,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>E59.2B.DY2012 | E59.1B.DY2012</t>
+          <t>E59.1B.DY2012 | E59.2B.DY2012</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -49406,12 +49534,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
+          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -50096,12 +50226,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
+          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -50786,8 +50918,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -51478,8 +51612,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -52170,12 +52306,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -52850,12 +52988,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>E62.2B.DY2012 | E62.1B.DY2012</t>
+          <t>E62.1B.DY2012 | E62.2B.DY2012</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -53530,12 +53670,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
+          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -54222,12 +54364,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>E63.2B.DY2012 | E63.1B.DY2012</t>
+          <t>E63.1B.DY2012 | E63.2B.DY2012</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -54914,8 +55058,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -55594,8 +55740,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -56274,8 +56422,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -56966,8 +57116,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -57658,12 +57810,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -58338,12 +58492,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
+          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -59018,8 +59174,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -59710,8 +59868,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -60402,8 +60562,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -61092,8 +61254,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -61782,12 +61946,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
+          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -62474,12 +62640,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
+          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -63166,12 +63334,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
+          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -63856,12 +64026,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>E70.1B.DY2012 | E70.2B.DY2012</t>
+          <t>E70.2B.DY2012 | E70.1B.DY2012</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -64546,12 +64718,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
+          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -65238,12 +65412,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
+          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -65930,12 +66106,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
+          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -66610,12 +66788,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>E24.NC.DY2012 | E41.NC.DY2012 | E56.NC.DY2012 | E73.NC.DY2012</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>E72.1B.DY2012 | E72.2B.DY2012</t>
+          <t>E72.2B.DY2012 | E72.1B.DY2012</t>
         </is>
       </c>
       <c r="J93" t="n">

--- a/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
+++ b/projects/EcoFoci/dy2012/data/dy2012_faire.xlsx
@@ -12891,7 +12891,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
+          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>E31.2B.DY2012 | E31.1B.DY2012</t>
+          <t>E31.1B.DY2012 | E31.2B.DY2012</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
+          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>E35.1B.DY2012 | E35.2B.DY2012</t>
+          <t>E35.2B.DY2012 | E35.1B.DY2012</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
+          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -20515,7 +20515,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>E36.1B.DY2012 | E36.2B.DY2012</t>
+          <t>E36.2B.DY2012 | E36.1B.DY2012</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -26057,7 +26057,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E40.1B.DY2012 | E40.2B.DY2012</t>
+          <t>E40.2B.DY2012 | E40.1B.DY2012</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
+          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -27445,7 +27445,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>E42.1B.DY2012 | E42.2B.DY2012</t>
+          <t>E42.2B.DY2012 | E42.1B.DY2012</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>E43.2B.DY2012 | E43.1B.DY2012</t>
+          <t>E43.1B.DY2012 | E43.2B.DY2012</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -28821,7 +28821,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>E43.2B.DY2012 | E43.1B.DY2012</t>
+          <t>E43.1B.DY2012 | E43.2B.DY2012</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -31581,7 +31581,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>E46.1B.DY2012 | E46.2B.DY2012</t>
+          <t>E46.2B.DY2012 | E46.1B.DY2012</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
+          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>E48.2B.DY2012 | E48.1B.DY2012</t>
+          <t>E48.1B.DY2012 | E48.2B.DY2012</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -35721,7 +35721,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>E49.1B.DY2012 | E49.2B.DY2012</t>
+          <t>E49.2B.DY2012 | E49.1B.DY2012</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -38493,7 +38493,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>E51.1B.DY2012 | E51.2B.DY2012</t>
+          <t>E51.2B.DY2012 | E51.1B.DY2012</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -39877,7 +39877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>E52.1B.DY2012 | E52.2B.DY2012</t>
+          <t>E52.2B.DY2012 | E52.1B.DY2012</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>E54.2B.DY2012 | E54.1B.DY2012</t>
+          <t>E54.1B.DY2012 | E54.2B.DY2012</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -43323,7 +43323,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>E54.2B.DY2012 | E54.1B.DY2012</t>
+          <t>E54.1B.DY2012 | E54.2B.DY2012</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -44017,7 +44017,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
+          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -44709,7 +44709,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>E55.2B.DY2012 | E55.1B.DY2012</t>
+          <t>E55.1B.DY2012 | E55.2B.DY2012</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -46789,7 +46789,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
+          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -47471,7 +47471,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>E58.1B.DY2012 | E58.2B.DY2012</t>
+          <t>E58.2B.DY2012 | E58.1B.DY2012</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -49541,7 +49541,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
+          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -50233,7 +50233,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>E60.2B.DY2012 | E60.1B.DY2012</t>
+          <t>E60.1B.DY2012 | E60.2B.DY2012</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -50925,7 +50925,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>E61.2B.DY2012 | E61.1B.DY2012</t>
+          <t>E61.1B.DY2012 | E61.2B.DY2012</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -51619,7 +51619,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>E61.2B.DY2012 | E61.1B.DY2012</t>
+          <t>E61.1B.DY2012 | E61.2B.DY2012</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -55065,7 +55065,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -55747,7 +55747,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>E64.2B.DY2012 | E64.1B.DY2012</t>
+          <t>E64.1B.DY2012 | E64.2B.DY2012</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -57817,7 +57817,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
+          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -58499,7 +58499,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>E66.2B.DY2012 | E66.1B.DY2012</t>
+          <t>E66.1B.DY2012 | E66.2B.DY2012</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -61953,7 +61953,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
+          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -62647,7 +62647,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>E69.2B.DY2012 | E69.1B.DY2012</t>
+          <t>E69.1B.DY2012 | E69.2B.DY2012</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -64725,7 +64725,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -65419,7 +65419,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>E71.1B.DY2012 | E71.2B.DY2012</t>
+          <t>E71.2B.DY2012 | E71.1B.DY2012</t>
         </is>
       </c>
       <c r="J91" t="n">
